--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91651433598129</v>
+        <v>17.91651433598135</v>
       </c>
       <c r="C2">
-        <v>11.68662903828452</v>
+        <v>11.68662903828459</v>
       </c>
       <c r="D2">
-        <v>8.170097310139699</v>
+        <v>8.170097310139749</v>
       </c>
       <c r="E2">
-        <v>10.61080802173609</v>
+        <v>10.61080802173617</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.9850953033017</v>
+        <v>63.98509530330173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.701299141669329</v>
+        <v>5.701299141669402</v>
       </c>
       <c r="J2">
-        <v>15.67386697572572</v>
+        <v>15.67386697572577</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.41586054088665</v>
+        <v>15.41586054088672</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.52088042361088</v>
+        <v>16.52088042361086</v>
       </c>
       <c r="C3">
-        <v>10.74383688093095</v>
+        <v>10.74383688093105</v>
       </c>
       <c r="D3">
-        <v>7.689387423161263</v>
+        <v>7.689387423161376</v>
       </c>
       <c r="E3">
-        <v>10.07004066469237</v>
+        <v>10.07004066469239</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.04828477918264</v>
+        <v>60.0482847791825</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.593344970959708</v>
+        <v>5.593344970959626</v>
       </c>
       <c r="J3">
-        <v>14.4587848461573</v>
+        <v>14.45878484615729</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.25832487361077</v>
+        <v>14.25832487361079</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63324683097323</v>
+        <v>15.63324683097317</v>
       </c>
       <c r="C4">
-        <v>10.14672533290362</v>
+        <v>10.14672533290378</v>
       </c>
       <c r="D4">
-        <v>7.389594724685336</v>
+        <v>7.389594724685295</v>
       </c>
       <c r="E4">
-        <v>9.73501646003297</v>
+        <v>9.735016460032913</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.56351670479147</v>
+        <v>57.56351670479132</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.529396110562335</v>
+        <v>5.529396110562239</v>
       </c>
       <c r="J4">
-        <v>13.6852561868071</v>
+        <v>13.68525618680709</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.51935215985043</v>
+        <v>13.51935215985042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>15.26344245192411</v>
       </c>
       <c r="C5">
-        <v>9.89846082304943</v>
+        <v>9.898460823049442</v>
       </c>
       <c r="D5">
-        <v>7.266287864201631</v>
+        <v>7.266287864201615</v>
       </c>
       <c r="E5">
-        <v>9.59777205613721</v>
+        <v>9.597772056137218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.53369085019013</v>
+        <v>56.53369085019011</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.503891125221752</v>
+        <v>5.50389112522173</v>
       </c>
       <c r="J5">
-        <v>13.36274794780111</v>
+        <v>13.36274794780112</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.2107826242725</v>
+        <v>13.21078262427251</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20153885485472</v>
+        <v>15.20153885485468</v>
       </c>
       <c r="C6">
-        <v>9.856929053717698</v>
+        <v>9.85692905371797</v>
       </c>
       <c r="D6">
-        <v>7.24574561345009</v>
+        <v>7.245745613450158</v>
       </c>
       <c r="E6">
-        <v>9.574940995340624</v>
+        <v>9.574940995340663</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.3616432596334</v>
+        <v>56.36164325963353</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.499688676855792</v>
+        <v>5.499688676855745</v>
       </c>
       <c r="J6">
-        <v>13.30874509897037</v>
+        <v>13.30874509897044</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.15908701835011</v>
+        <v>13.15908701835018</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62829269797695</v>
+        <v>15.62829269797697</v>
       </c>
       <c r="C7">
-        <v>10.14339757326477</v>
+        <v>10.14339757326501</v>
       </c>
       <c r="D7">
         <v>7.387936312384359</v>
       </c>
       <c r="E7">
-        <v>9.733168374490681</v>
+        <v>9.733168374490704</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.54969818914504</v>
+        <v>57.54969818914495</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.529049935205248</v>
+        <v>5.529049935205249</v>
       </c>
       <c r="J7">
-        <v>13.68093671524027</v>
+        <v>13.68093671524033</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.51522118673038</v>
+        <v>13.51522118673034</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.4414334363117</v>
+        <v>17.44143343631173</v>
       </c>
       <c r="C8">
-        <v>11.36511245700069</v>
+        <v>11.36511245700101</v>
       </c>
       <c r="D8">
-        <v>8.005313703344321</v>
+        <v>8.005313703344322</v>
       </c>
       <c r="E8">
-        <v>10.42497900167852</v>
+        <v>10.42497900167854</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.64145523639399</v>
+        <v>62.64145523639387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.663570617788877</v>
+        <v>5.663570617788846</v>
       </c>
       <c r="J8">
-        <v>15.26036108086264</v>
+        <v>15.26036108086278</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.02239242703314</v>
+        <v>15.02239242703323</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.77359480671696</v>
+        <v>20.77359480671684</v>
       </c>
       <c r="C9">
-        <v>13.63486605947032</v>
+        <v>13.63486605947045</v>
       </c>
       <c r="D9">
-        <v>9.180349632178286</v>
+        <v>9.180349632178288</v>
       </c>
       <c r="E9">
-        <v>11.75883601156885</v>
+        <v>11.75883601156881</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11759503940685</v>
+        <v>72.11759503940648</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.947698786061652</v>
+        <v>5.947698786061577</v>
       </c>
       <c r="J9">
         <v>18.15986447777183</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.1208253498583</v>
+        <v>23.12082534985815</v>
       </c>
       <c r="C10">
-        <v>15.25718753977786</v>
+        <v>15.25718753977808</v>
       </c>
       <c r="D10">
-        <v>10.02723759144054</v>
+        <v>10.02723759144049</v>
       </c>
       <c r="E10">
-        <v>12.73033817894501</v>
+        <v>12.73033817894495</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.83143740288469</v>
+        <v>78.83143740288391</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.172072721200479</v>
+        <v>6.172072721200456</v>
       </c>
       <c r="J10">
-        <v>20.20347595499905</v>
+        <v>20.203475954999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.69342354886186</v>
+        <v>19.69342354886179</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.17719584535099</v>
+        <v>24.17719584535102</v>
       </c>
       <c r="C11">
-        <v>15.99458751878483</v>
+        <v>15.99458751878485</v>
       </c>
       <c r="D11">
-        <v>10.44735228985517</v>
+        <v>10.44735228985513</v>
       </c>
       <c r="E11">
-        <v>13.17301219594889</v>
+        <v>13.17301219594884</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.85356712166903</v>
+        <v>81.8535671216689</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.278541457198983</v>
+        <v>6.27854145719897</v>
       </c>
       <c r="J11">
         <v>21.12414720342726</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.55507978903316</v>
+        <v>20.55507978903312</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.57671867140597</v>
+        <v>24.5767186714062</v>
       </c>
       <c r="C12">
-        <v>16.27473337416166</v>
+        <v>16.27473337416186</v>
       </c>
       <c r="D12">
-        <v>10.6098857165197</v>
+        <v>10.60988571651953</v>
       </c>
       <c r="E12">
-        <v>13.34107721830411</v>
+        <v>13.34107721830408</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.99589961857041</v>
+        <v>82.99589961857086</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.319604589953896</v>
+        <v>6.319604589953882</v>
       </c>
       <c r="J12">
-        <v>21.47254799072972</v>
+        <v>21.47254799072991</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.88041522319905</v>
+        <v>20.88041522319908</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.49067541947023</v>
+        <v>24.49067541947044</v>
       </c>
       <c r="C13">
-        <v>16.2143400267793</v>
+        <v>16.21434002677928</v>
       </c>
       <c r="D13">
-        <v>10.57490927469739</v>
+        <v>10.57490927469736</v>
       </c>
       <c r="E13">
-        <v>13.30485562461702</v>
+        <v>13.30485562461705</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.74992242019925</v>
+        <v>82.74992242020018</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.310725595967366</v>
+        <v>6.310725595967412</v>
       </c>
       <c r="J13">
-        <v>21.39750464661722</v>
+        <v>21.39750464661738</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.81037449406446</v>
+        <v>20.81037449406456</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.21006736016365</v>
+        <v>24.21006736016357</v>
       </c>
       <c r="C14">
-        <v>16.01761049962395</v>
+        <v>16.01761049962361</v>
       </c>
       <c r="D14">
-        <v>10.46073732207449</v>
+        <v>10.46073732207437</v>
       </c>
       <c r="E14">
-        <v>13.18682801429601</v>
+        <v>13.1868280142959</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.94757218357961</v>
+        <v>81.94757218357836</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.28190403857852</v>
+        <v>6.281904038578495</v>
       </c>
       <c r="J14">
-        <v>21.15280815340285</v>
+        <v>21.15280815340268</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.58185864360468</v>
+        <v>20.58185864360454</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.03816000800746</v>
+        <v>24.03816000800745</v>
       </c>
       <c r="C15">
-        <v>15.89725998893437</v>
+        <v>15.89725998893407</v>
       </c>
       <c r="D15">
-        <v>10.39071375905495</v>
+        <v>10.39071375905491</v>
       </c>
       <c r="E15">
-        <v>13.11460091893925</v>
+        <v>13.11460091893918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.45592551318261</v>
+        <v>81.45592551318224</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.264351013606218</v>
+        <v>6.264351013606221</v>
       </c>
       <c r="J15">
-        <v>21.00292916518897</v>
+        <v>21.00292916518894</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.44179156363458</v>
+        <v>20.4417915636345</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.0516508044728</v>
+        <v>23.05165080447261</v>
       </c>
       <c r="C16">
-        <v>15.20906434450838</v>
+        <v>15.20906434450826</v>
       </c>
       <c r="D16">
-        <v>10.00213639537935</v>
+        <v>10.00213639537931</v>
       </c>
       <c r="E16">
-        <v>12.70144870890536</v>
+        <v>12.70144870890532</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.63348946899976</v>
+        <v>78.63348946899885</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.16521224829423</v>
+        <v>6.165212248294194</v>
       </c>
       <c r="J16">
-        <v>20.14321179219233</v>
+        <v>20.14321179219213</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.63692585282558</v>
+        <v>19.63692585282541</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44426748692899</v>
+        <v>22.44426748692887</v>
       </c>
       <c r="C17">
-        <v>14.78736123637451</v>
+        <v>14.78736123637477</v>
       </c>
       <c r="D17">
-        <v>9.782053957145063</v>
+        <v>9.782053957145093</v>
       </c>
       <c r="E17">
-        <v>12.44838077952849</v>
+        <v>12.44838077952847</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.89539521173629</v>
+        <v>76.89539521173559</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.105591935277198</v>
+        <v>6.105591935277216</v>
       </c>
       <c r="J17">
-        <v>19.61417912686287</v>
+        <v>19.61417912686284</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.14045753323943</v>
+        <v>19.14045753323938</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09376217514046</v>
+        <v>22.09376217514053</v>
       </c>
       <c r="C18">
-        <v>14.54468065842339</v>
+        <v>14.54468065842366</v>
       </c>
       <c r="D18">
-        <v>9.655335840352224</v>
+        <v>9.655335840352262</v>
       </c>
       <c r="E18">
-        <v>12.30286623437804</v>
+        <v>12.30286623437807</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.89248697396295</v>
+        <v>75.89248697396262</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.071705742176791</v>
+        <v>6.071705742176838</v>
       </c>
       <c r="J18">
-        <v>19.30897307302047</v>
+        <v>19.30897307302054</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.85363430364142</v>
+        <v>18.8536343036415</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97485844190508</v>
+        <v>21.97485844190518</v>
       </c>
       <c r="C19">
-        <v>14.46246457225561</v>
+        <v>14.46246457225562</v>
       </c>
       <c r="D19">
-        <v>9.61240090550961</v>
+        <v>9.612400905509574</v>
       </c>
       <c r="E19">
-        <v>12.25359672209454</v>
+        <v>12.25359672209449</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.55230364934408</v>
+        <v>75.55230364934381</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.060299199480661</v>
+        <v>6.06029919948061</v>
       </c>
       <c r="J19">
         <v>19.20544921876147</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.75627936983803</v>
+        <v>18.75627936983804</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.50903658361423</v>
+        <v>22.50903658361428</v>
       </c>
       <c r="C20">
-        <v>14.83225904652888</v>
+        <v>14.83225904652887</v>
       </c>
       <c r="D20">
-        <v>9.805493958502748</v>
+        <v>9.805493958502758</v>
       </c>
       <c r="E20">
-        <v>12.47531376894911</v>
+        <v>12.47531376894912</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.08073368071251</v>
+        <v>77.08073368071263</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.111895894984673</v>
+        <v>6.111895894984707</v>
       </c>
       <c r="J20">
-        <v>19.6705839641537</v>
+        <v>19.67058396415374</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.19343287354787</v>
+        <v>19.19343287354793</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.29249189433997</v>
+        <v>24.29249189433992</v>
       </c>
       <c r="C21">
-        <v>16.0753609167926</v>
+        <v>16.07536091679263</v>
       </c>
       <c r="D21">
-        <v>10.49429032082252</v>
+        <v>10.49429032082244</v>
       </c>
       <c r="E21">
-        <v>13.22148061249846</v>
+        <v>13.22148061249839</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.18327467598471</v>
+        <v>82.18327467598441</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.290348329547686</v>
+        <v>6.290348329547643</v>
       </c>
       <c r="J21">
-        <v>21.22467821467766</v>
+        <v>21.22467821467764</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.64899709670159</v>
+        <v>20.64899709670157</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.45590943027966</v>
+        <v>25.45590943027976</v>
       </c>
       <c r="C22">
-        <v>16.89375179003621</v>
+        <v>16.89375179003628</v>
       </c>
       <c r="D22">
-        <v>10.96639369285781</v>
+        <v>10.96639369285791</v>
       </c>
       <c r="E22">
-        <v>13.71191557442391</v>
+        <v>13.71191557442396</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.50768210643051</v>
+        <v>85.50768210643128</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.411401731173666</v>
+        <v>6.411401731173644</v>
       </c>
       <c r="J22">
-        <v>22.23967635847028</v>
+        <v>22.23967635847043</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.59530406014162</v>
+        <v>21.59530406014176</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.83471601430782</v>
+        <v>24.83471601430798</v>
       </c>
       <c r="C23">
         <v>16.45601914017637</v>
@@ -1219,22 +1219,22 @@
         <v>10.71466971897956</v>
       </c>
       <c r="E23">
-        <v>13.44976719985818</v>
+        <v>13.44976719985813</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.73329960180764</v>
+        <v>83.73329960180801</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.346342166880259</v>
+        <v>6.346342166880254</v>
       </c>
       <c r="J23">
-        <v>21.6975965285682</v>
+        <v>21.6975965285683</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47975864524094</v>
+        <v>22.47975864524091</v>
       </c>
       <c r="C24">
-        <v>14.81196155909669</v>
+        <v>14.81196155909658</v>
       </c>
       <c r="D24">
-        <v>9.794897346303069</v>
+        <v>9.794897346303001</v>
       </c>
       <c r="E24">
         <v>12.46313745749323</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.9969537230012</v>
+        <v>76.99695372300079</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.109044667129632</v>
+        <v>6.109044667129592</v>
       </c>
       <c r="J24">
-        <v>19.64508670903472</v>
+        <v>19.64508670903471</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.16948713736585</v>
+        <v>19.1694871373659</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.89286337255079</v>
+        <v>19.89286337255075</v>
       </c>
       <c r="C25">
-        <v>13.03142546490342</v>
+        <v>13.03142546490356</v>
       </c>
       <c r="D25">
-        <v>8.865937071471928</v>
+        <v>8.865937071471979</v>
       </c>
       <c r="E25">
-        <v>11.40009342822136</v>
+        <v>11.40009342822137</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.60345811026666</v>
+        <v>69.60345811026694</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.868368757175197</v>
+        <v>5.86836875717517</v>
       </c>
       <c r="J25">
-        <v>17.39351163957227</v>
+        <v>17.39351163957229</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.04700249241215</v>
+        <v>17.04700249241219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91651433598135</v>
+        <v>17.91651433598129</v>
       </c>
       <c r="C2">
-        <v>11.68662903828459</v>
+        <v>11.68662903828452</v>
       </c>
       <c r="D2">
-        <v>8.170097310139749</v>
+        <v>8.170097310139699</v>
       </c>
       <c r="E2">
-        <v>10.61080802173617</v>
+        <v>10.61080802173609</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.98509530330173</v>
+        <v>63.9850953033017</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.701299141669402</v>
+        <v>5.701299141669329</v>
       </c>
       <c r="J2">
-        <v>15.67386697572577</v>
+        <v>15.67386697572572</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.41586054088672</v>
+        <v>15.41586054088665</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.52088042361086</v>
+        <v>16.52088042361088</v>
       </c>
       <c r="C3">
-        <v>10.74383688093105</v>
+        <v>10.74383688093095</v>
       </c>
       <c r="D3">
-        <v>7.689387423161376</v>
+        <v>7.689387423161263</v>
       </c>
       <c r="E3">
-        <v>10.07004066469239</v>
+        <v>10.07004066469237</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.0482847791825</v>
+        <v>60.04828477918264</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.593344970959626</v>
+        <v>5.593344970959708</v>
       </c>
       <c r="J3">
-        <v>14.45878484615729</v>
+        <v>14.4587848461573</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.25832487361079</v>
+        <v>14.25832487361077</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63324683097317</v>
+        <v>15.63324683097323</v>
       </c>
       <c r="C4">
-        <v>10.14672533290378</v>
+        <v>10.14672533290362</v>
       </c>
       <c r="D4">
-        <v>7.389594724685295</v>
+        <v>7.389594724685336</v>
       </c>
       <c r="E4">
-        <v>9.735016460032913</v>
+        <v>9.73501646003297</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.56351670479132</v>
+        <v>57.56351670479147</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.529396110562239</v>
+        <v>5.529396110562335</v>
       </c>
       <c r="J4">
-        <v>13.68525618680709</v>
+        <v>13.6852561868071</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.51935215985042</v>
+        <v>13.51935215985043</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>15.26344245192411</v>
       </c>
       <c r="C5">
-        <v>9.898460823049442</v>
+        <v>9.89846082304943</v>
       </c>
       <c r="D5">
-        <v>7.266287864201615</v>
+        <v>7.266287864201631</v>
       </c>
       <c r="E5">
-        <v>9.597772056137218</v>
+        <v>9.59777205613721</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.53369085019011</v>
+        <v>56.53369085019013</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.50389112522173</v>
+        <v>5.503891125221752</v>
       </c>
       <c r="J5">
-        <v>13.36274794780112</v>
+        <v>13.36274794780111</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.21078262427251</v>
+        <v>13.2107826242725</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20153885485468</v>
+        <v>15.20153885485472</v>
       </c>
       <c r="C6">
-        <v>9.85692905371797</v>
+        <v>9.856929053717698</v>
       </c>
       <c r="D6">
-        <v>7.245745613450158</v>
+        <v>7.24574561345009</v>
       </c>
       <c r="E6">
-        <v>9.574940995340663</v>
+        <v>9.574940995340624</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.36164325963353</v>
+        <v>56.3616432596334</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.499688676855745</v>
+        <v>5.499688676855792</v>
       </c>
       <c r="J6">
-        <v>13.30874509897044</v>
+        <v>13.30874509897037</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.15908701835018</v>
+        <v>13.15908701835011</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62829269797697</v>
+        <v>15.62829269797695</v>
       </c>
       <c r="C7">
-        <v>10.14339757326501</v>
+        <v>10.14339757326477</v>
       </c>
       <c r="D7">
         <v>7.387936312384359</v>
       </c>
       <c r="E7">
-        <v>9.733168374490704</v>
+        <v>9.733168374490681</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.54969818914495</v>
+        <v>57.54969818914504</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.529049935205249</v>
+        <v>5.529049935205248</v>
       </c>
       <c r="J7">
-        <v>13.68093671524033</v>
+        <v>13.68093671524027</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.51522118673034</v>
+        <v>13.51522118673038</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44143343631173</v>
+        <v>17.4414334363117</v>
       </c>
       <c r="C8">
-        <v>11.36511245700101</v>
+        <v>11.36511245700069</v>
       </c>
       <c r="D8">
-        <v>8.005313703344322</v>
+        <v>8.005313703344321</v>
       </c>
       <c r="E8">
-        <v>10.42497900167854</v>
+        <v>10.42497900167852</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.64145523639387</v>
+        <v>62.64145523639399</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.663570617788846</v>
+        <v>5.663570617788877</v>
       </c>
       <c r="J8">
-        <v>15.26036108086278</v>
+        <v>15.26036108086264</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.02239242703323</v>
+        <v>15.02239242703314</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.77359480671684</v>
+        <v>20.77359480671696</v>
       </c>
       <c r="C9">
-        <v>13.63486605947045</v>
+        <v>13.63486605947032</v>
       </c>
       <c r="D9">
-        <v>9.180349632178288</v>
+        <v>9.180349632178286</v>
       </c>
       <c r="E9">
-        <v>11.75883601156881</v>
+        <v>11.75883601156885</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11759503940648</v>
+        <v>72.11759503940685</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.947698786061577</v>
+        <v>5.947698786061652</v>
       </c>
       <c r="J9">
         <v>18.15986447777183</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.12082534985815</v>
+        <v>23.1208253498583</v>
       </c>
       <c r="C10">
-        <v>15.25718753977808</v>
+        <v>15.25718753977786</v>
       </c>
       <c r="D10">
-        <v>10.02723759144049</v>
+        <v>10.02723759144054</v>
       </c>
       <c r="E10">
-        <v>12.73033817894495</v>
+        <v>12.73033817894501</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.83143740288391</v>
+        <v>78.83143740288469</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.172072721200456</v>
+        <v>6.172072721200479</v>
       </c>
       <c r="J10">
-        <v>20.203475954999</v>
+        <v>20.20347595499905</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.69342354886179</v>
+        <v>19.69342354886186</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.17719584535102</v>
+        <v>24.17719584535099</v>
       </c>
       <c r="C11">
-        <v>15.99458751878485</v>
+        <v>15.99458751878483</v>
       </c>
       <c r="D11">
-        <v>10.44735228985513</v>
+        <v>10.44735228985517</v>
       </c>
       <c r="E11">
-        <v>13.17301219594884</v>
+        <v>13.17301219594889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.8535671216689</v>
+        <v>81.85356712166903</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.27854145719897</v>
+        <v>6.278541457198983</v>
       </c>
       <c r="J11">
         <v>21.12414720342726</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.55507978903312</v>
+        <v>20.55507978903316</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.5767186714062</v>
+        <v>24.57671867140597</v>
       </c>
       <c r="C12">
-        <v>16.27473337416186</v>
+        <v>16.27473337416166</v>
       </c>
       <c r="D12">
-        <v>10.60988571651953</v>
+        <v>10.6098857165197</v>
       </c>
       <c r="E12">
-        <v>13.34107721830408</v>
+        <v>13.34107721830411</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.99589961857086</v>
+        <v>82.99589961857041</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.319604589953882</v>
+        <v>6.319604589953896</v>
       </c>
       <c r="J12">
-        <v>21.47254799072991</v>
+        <v>21.47254799072972</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.88041522319908</v>
+        <v>20.88041522319905</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.49067541947044</v>
+        <v>24.49067541947023</v>
       </c>
       <c r="C13">
-        <v>16.21434002677928</v>
+        <v>16.2143400267793</v>
       </c>
       <c r="D13">
-        <v>10.57490927469736</v>
+        <v>10.57490927469739</v>
       </c>
       <c r="E13">
-        <v>13.30485562461705</v>
+        <v>13.30485562461702</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.74992242020018</v>
+        <v>82.74992242019925</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.310725595967412</v>
+        <v>6.310725595967366</v>
       </c>
       <c r="J13">
-        <v>21.39750464661738</v>
+        <v>21.39750464661722</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.81037449406456</v>
+        <v>20.81037449406446</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.21006736016357</v>
+        <v>24.21006736016365</v>
       </c>
       <c r="C14">
-        <v>16.01761049962361</v>
+        <v>16.01761049962395</v>
       </c>
       <c r="D14">
-        <v>10.46073732207437</v>
+        <v>10.46073732207449</v>
       </c>
       <c r="E14">
-        <v>13.1868280142959</v>
+        <v>13.18682801429601</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.94757218357836</v>
+        <v>81.94757218357961</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.281904038578495</v>
+        <v>6.28190403857852</v>
       </c>
       <c r="J14">
-        <v>21.15280815340268</v>
+        <v>21.15280815340285</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.58185864360454</v>
+        <v>20.58185864360468</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.03816000800745</v>
+        <v>24.03816000800746</v>
       </c>
       <c r="C15">
-        <v>15.89725998893407</v>
+        <v>15.89725998893437</v>
       </c>
       <c r="D15">
-        <v>10.39071375905491</v>
+        <v>10.39071375905495</v>
       </c>
       <c r="E15">
-        <v>13.11460091893918</v>
+        <v>13.11460091893925</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.45592551318224</v>
+        <v>81.45592551318261</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.264351013606221</v>
+        <v>6.264351013606218</v>
       </c>
       <c r="J15">
-        <v>21.00292916518894</v>
+        <v>21.00292916518897</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.4417915636345</v>
+        <v>20.44179156363458</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.05165080447261</v>
+        <v>23.0516508044728</v>
       </c>
       <c r="C16">
-        <v>15.20906434450826</v>
+        <v>15.20906434450838</v>
       </c>
       <c r="D16">
-        <v>10.00213639537931</v>
+        <v>10.00213639537935</v>
       </c>
       <c r="E16">
-        <v>12.70144870890532</v>
+        <v>12.70144870890536</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.63348946899885</v>
+        <v>78.63348946899976</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.165212248294194</v>
+        <v>6.16521224829423</v>
       </c>
       <c r="J16">
-        <v>20.14321179219213</v>
+        <v>20.14321179219233</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.63692585282541</v>
+        <v>19.63692585282558</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44426748692887</v>
+        <v>22.44426748692899</v>
       </c>
       <c r="C17">
-        <v>14.78736123637477</v>
+        <v>14.78736123637451</v>
       </c>
       <c r="D17">
-        <v>9.782053957145093</v>
+        <v>9.782053957145063</v>
       </c>
       <c r="E17">
-        <v>12.44838077952847</v>
+        <v>12.44838077952849</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.89539521173559</v>
+        <v>76.89539521173629</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.105591935277216</v>
+        <v>6.105591935277198</v>
       </c>
       <c r="J17">
-        <v>19.61417912686284</v>
+        <v>19.61417912686287</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.14045753323938</v>
+        <v>19.14045753323943</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09376217514053</v>
+        <v>22.09376217514046</v>
       </c>
       <c r="C18">
-        <v>14.54468065842366</v>
+        <v>14.54468065842339</v>
       </c>
       <c r="D18">
-        <v>9.655335840352262</v>
+        <v>9.655335840352224</v>
       </c>
       <c r="E18">
-        <v>12.30286623437807</v>
+        <v>12.30286623437804</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.89248697396262</v>
+        <v>75.89248697396295</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.071705742176838</v>
+        <v>6.071705742176791</v>
       </c>
       <c r="J18">
-        <v>19.30897307302054</v>
+        <v>19.30897307302047</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.8536343036415</v>
+        <v>18.85363430364142</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97485844190518</v>
+        <v>21.97485844190508</v>
       </c>
       <c r="C19">
-        <v>14.46246457225562</v>
+        <v>14.46246457225561</v>
       </c>
       <c r="D19">
-        <v>9.612400905509574</v>
+        <v>9.61240090550961</v>
       </c>
       <c r="E19">
-        <v>12.25359672209449</v>
+        <v>12.25359672209454</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.55230364934381</v>
+        <v>75.55230364934408</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.06029919948061</v>
+        <v>6.060299199480661</v>
       </c>
       <c r="J19">
         <v>19.20544921876147</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.75627936983804</v>
+        <v>18.75627936983803</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.50903658361428</v>
+        <v>22.50903658361423</v>
       </c>
       <c r="C20">
-        <v>14.83225904652887</v>
+        <v>14.83225904652888</v>
       </c>
       <c r="D20">
-        <v>9.805493958502758</v>
+        <v>9.805493958502748</v>
       </c>
       <c r="E20">
-        <v>12.47531376894912</v>
+        <v>12.47531376894911</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.08073368071263</v>
+        <v>77.08073368071251</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.111895894984707</v>
+        <v>6.111895894984673</v>
       </c>
       <c r="J20">
-        <v>19.67058396415374</v>
+        <v>19.6705839641537</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.19343287354793</v>
+        <v>19.19343287354787</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.29249189433992</v>
+        <v>24.29249189433997</v>
       </c>
       <c r="C21">
-        <v>16.07536091679263</v>
+        <v>16.0753609167926</v>
       </c>
       <c r="D21">
-        <v>10.49429032082244</v>
+        <v>10.49429032082252</v>
       </c>
       <c r="E21">
-        <v>13.22148061249839</v>
+        <v>13.22148061249846</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.18327467598441</v>
+        <v>82.18327467598471</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.290348329547643</v>
+        <v>6.290348329547686</v>
       </c>
       <c r="J21">
-        <v>21.22467821467764</v>
+        <v>21.22467821467766</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.64899709670157</v>
+        <v>20.64899709670159</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.45590943027976</v>
+        <v>25.45590943027966</v>
       </c>
       <c r="C22">
-        <v>16.89375179003628</v>
+        <v>16.89375179003621</v>
       </c>
       <c r="D22">
-        <v>10.96639369285791</v>
+        <v>10.96639369285781</v>
       </c>
       <c r="E22">
-        <v>13.71191557442396</v>
+        <v>13.71191557442391</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.50768210643128</v>
+        <v>85.50768210643051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.411401731173644</v>
+        <v>6.411401731173666</v>
       </c>
       <c r="J22">
-        <v>22.23967635847043</v>
+        <v>22.23967635847028</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.59530406014176</v>
+        <v>21.59530406014162</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.83471601430798</v>
+        <v>24.83471601430782</v>
       </c>
       <c r="C23">
         <v>16.45601914017637</v>
@@ -1219,22 +1219,22 @@
         <v>10.71466971897956</v>
       </c>
       <c r="E23">
-        <v>13.44976719985813</v>
+        <v>13.44976719985818</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.73329960180801</v>
+        <v>83.73329960180764</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.346342166880254</v>
+        <v>6.346342166880259</v>
       </c>
       <c r="J23">
-        <v>21.6975965285683</v>
+        <v>21.6975965285682</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47975864524091</v>
+        <v>22.47975864524094</v>
       </c>
       <c r="C24">
-        <v>14.81196155909658</v>
+        <v>14.81196155909669</v>
       </c>
       <c r="D24">
-        <v>9.794897346303001</v>
+        <v>9.794897346303069</v>
       </c>
       <c r="E24">
         <v>12.46313745749323</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.99695372300079</v>
+        <v>76.9969537230012</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.109044667129592</v>
+        <v>6.109044667129632</v>
       </c>
       <c r="J24">
-        <v>19.64508670903471</v>
+        <v>19.64508670903472</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.1694871373659</v>
+        <v>19.16948713736585</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.89286337255075</v>
+        <v>19.89286337255079</v>
       </c>
       <c r="C25">
-        <v>13.03142546490356</v>
+        <v>13.03142546490342</v>
       </c>
       <c r="D25">
-        <v>8.865937071471979</v>
+        <v>8.865937071471928</v>
       </c>
       <c r="E25">
-        <v>11.40009342822137</v>
+        <v>11.40009342822136</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.60345811026694</v>
+        <v>69.60345811026666</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.86836875717517</v>
+        <v>5.868368757175197</v>
       </c>
       <c r="J25">
-        <v>17.39351163957229</v>
+        <v>17.39351163957227</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.04700249241219</v>
+        <v>17.04700249241215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91651433598129</v>
+        <v>17.91366015564047</v>
       </c>
       <c r="C2">
-        <v>11.68662903828452</v>
+        <v>11.68285582600134</v>
       </c>
       <c r="D2">
-        <v>8.170097310139699</v>
+        <v>8.169692353128697</v>
       </c>
       <c r="E2">
-        <v>10.61080802173609</v>
+        <v>10.60973301773645</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.9850953033017</v>
+        <v>63.14985692449987</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.97320920839361</v>
       </c>
       <c r="I2">
-        <v>5.701299141669329</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.67386697572572</v>
+        <v>5.700421265546154</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.67044328208135</v>
       </c>
       <c r="L2">
-        <v>15.41586054088665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>15.41380202818091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.52088042361088</v>
+        <v>16.51886513587275</v>
       </c>
       <c r="C3">
-        <v>10.74383688093095</v>
+        <v>10.74104913549412</v>
       </c>
       <c r="D3">
-        <v>7.689387423161263</v>
+        <v>7.689105041682542</v>
       </c>
       <c r="E3">
-        <v>10.07004066469237</v>
+        <v>10.06918939197088</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.04828477918264</v>
+        <v>59.04913017519352</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>60.0397778175936</v>
       </c>
       <c r="I3">
-        <v>5.593344970959708</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.4587848461573</v>
+        <v>5.592647569100381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.45626036746432</v>
       </c>
       <c r="L3">
-        <v>14.25832487361077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>14.25680896069444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63324683097323</v>
+        <v>15.63169493751135</v>
       </c>
       <c r="C4">
-        <v>10.14672533290362</v>
+        <v>10.14450248126051</v>
       </c>
       <c r="D4">
-        <v>7.389594724685336</v>
+        <v>7.389377915058018</v>
       </c>
       <c r="E4">
-        <v>9.73501646003297</v>
+        <v>9.734303204535044</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.56351670479147</v>
+        <v>56.45149959293923</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.55715711800017</v>
       </c>
       <c r="I4">
-        <v>5.529396110562335</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.6852561868071</v>
+        <v>5.528812722685812</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.68324509424837</v>
       </c>
       <c r="L4">
-        <v>13.51935215985043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.51814398350609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.26344245192411</v>
+        <v>15.26206797223848</v>
       </c>
       <c r="C5">
-        <v>9.89846082304943</v>
+        <v>9.896459756500569</v>
       </c>
       <c r="D5">
-        <v>7.266287864201631</v>
+        <v>7.266095777828974</v>
       </c>
       <c r="E5">
-        <v>9.59777205613721</v>
+        <v>9.597115718922684</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.53369085019013</v>
+        <v>55.37246087982187</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.52823108100053</v>
       </c>
       <c r="I5">
-        <v>5.503891125221752</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.36274794780111</v>
+        <v>5.503355099636714</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.3609380247714</v>
       </c>
       <c r="L5">
-        <v>13.2107826242725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.20969471784821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20153885485472</v>
+        <v>15.20019318303432</v>
       </c>
       <c r="C6">
-        <v>9.856929053717698</v>
+        <v>9.854964349411462</v>
       </c>
       <c r="D6">
-        <v>7.24574561345009</v>
+        <v>7.245557523052534</v>
       </c>
       <c r="E6">
-        <v>9.574940995340624</v>
+        <v>9.574294163491071</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.3616432596334</v>
+        <v>55.19204248833547</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.3563345796457</v>
       </c>
       <c r="I6">
-        <v>5.499688676855792</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.30874509897037</v>
+        <v>5.499160572359776</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.30696813805804</v>
       </c>
       <c r="L6">
-        <v>13.15908701835011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.15801880513477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62829269797695</v>
+        <v>15.62674324164437</v>
       </c>
       <c r="C7">
-        <v>10.14339757326477</v>
+        <v>10.14117774476685</v>
       </c>
       <c r="D7">
-        <v>7.387936312384359</v>
+        <v>7.387719843749782</v>
       </c>
       <c r="E7">
-        <v>9.733168374490681</v>
+        <v>9.732455883264651</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.54969818914504</v>
+        <v>56.43703061877086</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.54335062919505</v>
       </c>
       <c r="I7">
-        <v>5.529049935205248</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.68093671524027</v>
+        <v>5.528467182322312</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.6789283662631</v>
       </c>
       <c r="L7">
-        <v>13.51522118673038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.51401465167867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.4414334363117</v>
+        <v>17.43888031589886</v>
       </c>
       <c r="C8">
-        <v>11.36511245700069</v>
+        <v>11.36168850490112</v>
       </c>
       <c r="D8">
-        <v>8.005313703344321</v>
+        <v>8.004953312646697</v>
       </c>
       <c r="E8">
-        <v>10.42497900167852</v>
+        <v>10.42398134436583</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.64145523639399</v>
+        <v>61.75214845434645</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.63072329018024</v>
       </c>
       <c r="I8">
-        <v>5.663570617788877</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.26036108086264</v>
+        <v>5.662754372471572</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.2572566091975</v>
       </c>
       <c r="L8">
-        <v>15.02239242703314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.0205271110456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.77359480671696</v>
+        <v>20.76856613593231</v>
       </c>
       <c r="C9">
-        <v>13.63486605947032</v>
+        <v>13.62866328162336</v>
       </c>
       <c r="D9">
-        <v>9.180349632178286</v>
+        <v>9.17960477322903</v>
       </c>
       <c r="E9">
-        <v>11.75883601156885</v>
+        <v>11.75725523750461</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11759503940685</v>
+        <v>71.57535670859133</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.09851092562715</v>
       </c>
       <c r="I9">
-        <v>5.947698786061652</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>18.15986447777183</v>
+        <v>5.94644364411333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.15420450052103</v>
       </c>
       <c r="L9">
-        <v>17.77114573648219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>17.76771477030607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.1208253498583</v>
+        <v>23.11347887822875</v>
       </c>
       <c r="C10">
-        <v>15.25718753977786</v>
+        <v>15.24850303397623</v>
       </c>
       <c r="D10">
-        <v>10.02723759144054</v>
+        <v>10.02609990299781</v>
       </c>
       <c r="E10">
-        <v>12.73033817894501</v>
+        <v>12.72826076910335</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.83143740288469</v>
+        <v>78.49608254491943</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>78.80581129002736</v>
       </c>
       <c r="I10">
-        <v>6.172072721200479</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>20.20347595499905</v>
+        <v>6.170493116123493</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.1955056938447</v>
       </c>
       <c r="L10">
-        <v>19.69342354886186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.68854041060619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.17719584535099</v>
+        <v>24.16862189644845</v>
       </c>
       <c r="C11">
-        <v>15.99458751878483</v>
+        <v>15.98461683675248</v>
       </c>
       <c r="D11">
-        <v>10.44735228985517</v>
+        <v>10.44592186653743</v>
       </c>
       <c r="E11">
-        <v>13.17301219594889</v>
+        <v>13.17067628159012</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.85356712166903</v>
+        <v>81.60324923532058</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>81.82470859003718</v>
       </c>
       <c r="I11">
-        <v>6.278541457198983</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>21.12414720342726</v>
+        <v>6.27680882364697</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.11497042083428</v>
       </c>
       <c r="L11">
-        <v>20.55507978903316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>20.54942542318862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.57671867140597</v>
+        <v>24.56764709447306</v>
       </c>
       <c r="C12">
-        <v>16.27473337416166</v>
+        <v>16.26424559082084</v>
       </c>
       <c r="D12">
-        <v>10.6098857165197</v>
+        <v>10.60836114930017</v>
       </c>
       <c r="E12">
-        <v>13.34107721830411</v>
+        <v>13.33863655884797</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.99589961857041</v>
+        <v>82.77658089876874</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>82.96576064694004</v>
       </c>
       <c r="I12">
-        <v>6.319604589953896</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.47254799072972</v>
+        <v>6.317812589338531</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.4628845010856</v>
       </c>
       <c r="L12">
-        <v>20.88041522319905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20.87444740683145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.49067541947023</v>
+        <v>24.4817126315188</v>
       </c>
       <c r="C13">
-        <v>16.2143400267793</v>
+        <v>16.20396509378716</v>
       </c>
       <c r="D13">
-        <v>10.57490927469739</v>
+        <v>10.57340538153728</v>
       </c>
       <c r="E13">
-        <v>13.30485562461702</v>
+        <v>13.30243787188724</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.74992242019925</v>
+        <v>82.52397937712797</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>82.72006210202566</v>
       </c>
       <c r="I13">
-        <v>6.310725595967366</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>21.39750464661722</v>
+        <v>6.308946457072231</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.38794745147014</v>
       </c>
       <c r="L13">
-        <v>20.81037449406446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>20.8044752456579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.21006736016365</v>
+        <v>24.20145318403836</v>
       </c>
       <c r="C14">
-        <v>16.01761049962395</v>
+        <v>16.00759792955213</v>
       </c>
       <c r="D14">
-        <v>10.46073732207449</v>
+        <v>10.4592993290144</v>
       </c>
       <c r="E14">
-        <v>13.18682801429601</v>
+        <v>13.18448363511435</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.94757218357961</v>
+        <v>81.69982814815005</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>81.91860957388705</v>
       </c>
       <c r="I14">
-        <v>6.28190403857852</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>21.15280815340285</v>
+        <v>6.280166553835431</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.14359197882064</v>
       </c>
       <c r="L14">
-        <v>20.58185864360468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>20.57617895743049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.03816000800746</v>
+        <v>24.02975481170245</v>
       </c>
       <c r="C15">
-        <v>15.89725998893437</v>
+        <v>15.88746519827095</v>
       </c>
       <c r="D15">
-        <v>10.39071375905495</v>
+        <v>10.38931501166096</v>
       </c>
       <c r="E15">
-        <v>13.11460091893925</v>
+        <v>13.11230051284864</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.45592551318261</v>
+        <v>81.19467409340125</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.42750474672062</v>
       </c>
       <c r="I15">
-        <v>6.264351013606218</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>21.00292916518897</v>
+        <v>6.262638835379514</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.99391772666863</v>
       </c>
       <c r="L15">
-        <v>20.44179156363458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>20.43624338225917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.0516508044728</v>
+        <v>23.04438045118118</v>
       </c>
       <c r="C16">
-        <v>15.20906434450838</v>
+        <v>15.20046014801404</v>
       </c>
       <c r="D16">
-        <v>10.00213639537935</v>
+        <v>10.00101204957581</v>
       </c>
       <c r="E16">
-        <v>12.70144870890536</v>
+        <v>12.69938736846686</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.63348946899976</v>
+        <v>78.29240351708738</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.6080679073567</v>
       </c>
       <c r="I16">
-        <v>6.16521224829423</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>20.14321179219233</v>
+        <v>6.163642485517702</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.13531666787025</v>
       </c>
       <c r="L16">
-        <v>19.63692585282558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.63209046188051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44426748692899</v>
+        <v>22.43764414867314</v>
       </c>
       <c r="C17">
-        <v>14.78736123637451</v>
+        <v>14.77944259252323</v>
       </c>
       <c r="D17">
-        <v>9.782053957145063</v>
+        <v>9.781041864602811</v>
       </c>
       <c r="E17">
-        <v>12.44838077952849</v>
+        <v>12.44645642939338</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.89539521173629</v>
+        <v>76.50308372661807</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>76.87173576780606</v>
       </c>
       <c r="I17">
-        <v>6.105591935277198</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.61417912686287</v>
+        <v>6.104107765688306</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.60692441206146</v>
       </c>
       <c r="L17">
-        <v>19.14045753323943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19.13602772360955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09376217514046</v>
+        <v>22.08749529103566</v>
       </c>
       <c r="C18">
-        <v>14.54468065842339</v>
+        <v>14.53714208969518</v>
       </c>
       <c r="D18">
-        <v>9.655335840352224</v>
+        <v>9.654384678025721</v>
       </c>
       <c r="E18">
-        <v>12.30286623437804</v>
+        <v>12.30101777524208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.89248697396295</v>
+        <v>75.46985199738457</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>75.86981836470481</v>
       </c>
       <c r="I18">
-        <v>6.071705742176791</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>19.30897307302047</v>
+        <v>6.070270341917143</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.30207262601843</v>
       </c>
       <c r="L18">
-        <v>18.85363430364142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>18.84942777759323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97485844190508</v>
+        <v>21.96870975180173</v>
       </c>
       <c r="C19">
-        <v>14.46246457225561</v>
+        <v>14.45505243412014</v>
       </c>
       <c r="D19">
-        <v>9.61240090550961</v>
+        <v>9.611469799209447</v>
       </c>
       <c r="E19">
-        <v>12.25359672209454</v>
+        <v>12.25177351450538</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.55230364934408</v>
+        <v>75.11925075053134</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.52996712522095</v>
       </c>
       <c r="I19">
-        <v>6.060299199480661</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>19.20544921876147</v>
+        <v>6.058880248169936</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.19866649153018</v>
       </c>
       <c r="L19">
-        <v>18.75627936983803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>18.75214686557968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.50903658361423</v>
+        <v>22.5023460425304</v>
       </c>
       <c r="C20">
-        <v>14.83225904652888</v>
+        <v>14.82426894411675</v>
       </c>
       <c r="D20">
-        <v>9.805493958502748</v>
+        <v>9.804470304971796</v>
       </c>
       <c r="E20">
-        <v>12.47531376894911</v>
+        <v>12.4733751497183</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.08073368071251</v>
+        <v>76.69396347934924</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.05688912724455</v>
       </c>
       <c r="I20">
-        <v>6.111895894984673</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.6705839641537</v>
+        <v>6.110402665509776</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.66326258002771</v>
       </c>
       <c r="L20">
-        <v>19.19343287354787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>19.18896095763198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.29249189433997</v>
+        <v>24.28377628999343</v>
       </c>
       <c r="C21">
-        <v>16.0753609167926</v>
+        <v>16.06524279979362</v>
       </c>
       <c r="D21">
-        <v>10.49429032082252</v>
+        <v>10.49283320955807</v>
       </c>
       <c r="E21">
-        <v>13.22148061249846</v>
+        <v>13.21911488897215</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.18327467598471</v>
+        <v>81.94196596416812</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.15405010496436</v>
       </c>
       <c r="I21">
-        <v>6.290348329547686</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>21.22467821467766</v>
+        <v>6.288598654791763</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.21536275584148</v>
       </c>
       <c r="L21">
-        <v>20.64899709670159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>20.64325355421139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.45590943027966</v>
+        <v>25.44567314083831</v>
       </c>
       <c r="C22">
-        <v>16.89375179003621</v>
+        <v>16.88206216598296</v>
       </c>
       <c r="D22">
-        <v>10.96639369285781</v>
+        <v>10.9646446421733</v>
       </c>
       <c r="E22">
-        <v>13.71191557442391</v>
+        <v>13.70922910860093</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.50768210643051</v>
+        <v>85.35447619973458</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>85.47459848692445</v>
       </c>
       <c r="I22">
-        <v>6.411401731173666</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>22.23967635847028</v>
+        <v>6.409475687706806</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.22887825333534</v>
       </c>
       <c r="L22">
-        <v>21.59530406014162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>21.58860053688626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.83471601430782</v>
+        <v>24.82531279918887</v>
       </c>
       <c r="C23">
-        <v>16.45601914017637</v>
+        <v>16.4451879873172</v>
       </c>
       <c r="D23">
-        <v>10.71466971897956</v>
+        <v>10.71308181299017</v>
       </c>
       <c r="E23">
-        <v>13.44976719985818</v>
+        <v>13.44725666792253</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.73329960180764</v>
+        <v>83.53367620966304</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>83.70231524645838</v>
       </c>
       <c r="I23">
-        <v>6.346342166880259</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.6975965285682</v>
+        <v>6.344511338510046</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.68760935569078</v>
       </c>
       <c r="L23">
-        <v>21.09034705230669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21.08417005587469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47975864524094</v>
+        <v>22.47309853435083</v>
       </c>
       <c r="C24">
-        <v>14.81196155909669</v>
+        <v>14.80400380636375</v>
       </c>
       <c r="D24">
-        <v>9.794897346303069</v>
+        <v>9.79387893058505</v>
       </c>
       <c r="E24">
-        <v>12.46313745749323</v>
+        <v>12.46120529809706</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.9969537230012</v>
+        <v>76.60768103504543</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>76.97319292541678</v>
       </c>
       <c r="I24">
-        <v>6.109044667129632</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.64508670903472</v>
+        <v>6.1075555349531</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.63779550891893</v>
       </c>
       <c r="L24">
-        <v>19.16948713736585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>19.16503428812254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.89286337255079</v>
+        <v>19.88857493049822</v>
       </c>
       <c r="C25">
-        <v>13.03142546490342</v>
+        <v>13.02603524995745</v>
       </c>
       <c r="D25">
-        <v>8.865937071471928</v>
+        <v>8.865311308320548</v>
       </c>
       <c r="E25">
-        <v>11.40009342822136</v>
+        <v>11.39867764677455</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.60345811026666</v>
+        <v>68.97626783821589</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.58665795989734</v>
       </c>
       <c r="I25">
-        <v>5.868368757175197</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.39351163957227</v>
+        <v>5.867231429863368</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.38860255008777</v>
       </c>
       <c r="L25">
-        <v>17.04700249241215</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17.04403610526312</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91366015564047</v>
+        <v>21.57620478059491</v>
       </c>
       <c r="C2">
-        <v>11.68285582600134</v>
+        <v>9.996926531380678</v>
       </c>
       <c r="D2">
-        <v>8.169692353128697</v>
+        <v>8.372178709635671</v>
       </c>
       <c r="E2">
-        <v>10.60973301773645</v>
+        <v>7.530374003278705</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.14985692449987</v>
+        <v>2.17547208875481</v>
       </c>
       <c r="H2">
-        <v>63.97320920839361</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.700421265546154</v>
+        <v>5.107924252388953</v>
       </c>
       <c r="K2">
-        <v>15.67044328208135</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.76760326939144</v>
       </c>
       <c r="M2">
-        <v>15.41380202818091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.39444046195905</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>66.91092411350377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.51886513587275</v>
+        <v>20.59806048163991</v>
       </c>
       <c r="C3">
-        <v>10.74104913549412</v>
+        <v>9.175862226270812</v>
       </c>
       <c r="D3">
-        <v>7.689105041682542</v>
+        <v>8.230628654334103</v>
       </c>
       <c r="E3">
-        <v>10.06918939197088</v>
+        <v>7.490065654633923</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.04913017519352</v>
+        <v>2.191922017447327</v>
       </c>
       <c r="H3">
-        <v>60.0397778175936</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.592647569100381</v>
+        <v>5.035263718126641</v>
       </c>
       <c r="K3">
-        <v>14.45626036746432</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.743175462294007</v>
       </c>
       <c r="M3">
-        <v>14.25680896069444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.12235834411347</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>63.65644787092796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63169493751135</v>
+        <v>20.01120793013366</v>
       </c>
       <c r="C4">
-        <v>10.14450248126051</v>
+        <v>8.65589937799624</v>
       </c>
       <c r="D4">
-        <v>7.389377915058018</v>
+        <v>8.147772247307747</v>
       </c>
       <c r="E4">
-        <v>9.734303204535044</v>
+        <v>7.466422210999264</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.45149959293923</v>
+        <v>2.202144607683851</v>
       </c>
       <c r="H4">
-        <v>57.55715711800017</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.528812722685812</v>
+        <v>4.990521873264806</v>
       </c>
       <c r="K4">
-        <v>13.68324509424837</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.733871880883991</v>
       </c>
       <c r="M4">
-        <v>13.51814398350609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.97106787651659</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>61.6265296455817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.26206797223848</v>
+        <v>19.77562667984328</v>
       </c>
       <c r="C5">
-        <v>9.896459756500569</v>
+        <v>8.439794185409175</v>
       </c>
       <c r="D5">
-        <v>7.266095777828974</v>
+        <v>8.114987451797234</v>
       </c>
       <c r="E5">
-        <v>9.597115718922684</v>
+        <v>7.457029665929969</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.37246087982187</v>
+        <v>2.206348262208629</v>
       </c>
       <c r="H5">
-        <v>56.52823108100053</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.503355099636714</v>
+        <v>4.972225511519282</v>
       </c>
       <c r="K5">
-        <v>13.3609380247714</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.731447163628833</v>
       </c>
       <c r="M5">
-        <v>13.20969471784821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.91323713563794</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>60.79142641467767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20019318303432</v>
+        <v>19.73672839242575</v>
       </c>
       <c r="C6">
-        <v>9.854964349411462</v>
+        <v>8.403649283357687</v>
       </c>
       <c r="D6">
-        <v>7.245557523052534</v>
+        <v>8.109601653516666</v>
       </c>
       <c r="E6">
-        <v>9.574294163491071</v>
+        <v>7.455483712057921</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.19204248833547</v>
+        <v>2.207048756005708</v>
       </c>
       <c r="H6">
-        <v>56.3563345796457</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.499160572359776</v>
+        <v>4.969182720520852</v>
       </c>
       <c r="K6">
-        <v>13.30696813805804</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.731125251863219</v>
       </c>
       <c r="M6">
-        <v>13.15801880513477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.9038610928012</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>60.65228690543745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62674324164437</v>
+        <v>20.00801616784011</v>
       </c>
       <c r="C7">
-        <v>10.14117774476685</v>
+        <v>8.65300226254098</v>
       </c>
       <c r="D7">
-        <v>7.387719843749782</v>
+        <v>8.147326182382894</v>
       </c>
       <c r="E7">
-        <v>9.732455883264651</v>
+        <v>7.466294602793255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.43703061877086</v>
+        <v>2.202201137486551</v>
       </c>
       <c r="H7">
-        <v>57.54335062919505</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.528467182322312</v>
+        <v>4.990275418828251</v>
       </c>
       <c r="K7">
-        <v>13.6789283662631</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.733833730246861</v>
       </c>
       <c r="M7">
-        <v>13.51401465167867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.97027266387313</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>61.61529889236426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.43888031589886</v>
+        <v>21.23613756917656</v>
       </c>
       <c r="C8">
-        <v>11.36168850490112</v>
+        <v>9.716953027471661</v>
       </c>
       <c r="D8">
-        <v>8.004953312646697</v>
+        <v>8.322504787191122</v>
       </c>
       <c r="E8">
-        <v>10.42398134436583</v>
+        <v>7.516223179373041</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.75214845434645</v>
+        <v>2.181123200395792</v>
       </c>
       <c r="H8">
-        <v>62.63072329018024</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.662754372471572</v>
+        <v>5.082877169436399</v>
       </c>
       <c r="K8">
-        <v>15.2572566091975</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.757957489626286</v>
       </c>
       <c r="M8">
-        <v>15.0205271110456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.29726446458823</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>65.79532782335981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.76856613593231</v>
+        <v>23.75266535990819</v>
       </c>
       <c r="C9">
-        <v>13.62866328162336</v>
+        <v>11.69081405156706</v>
       </c>
       <c r="D9">
-        <v>9.17960477322903</v>
+        <v>8.700352424978043</v>
       </c>
       <c r="E9">
-        <v>11.75725523750461</v>
+        <v>7.624794031090606</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.57535670859133</v>
+        <v>2.140387419100821</v>
       </c>
       <c r="H9">
-        <v>72.09851092562715</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.94644364411333</v>
+        <v>5.265130469686108</v>
       </c>
       <c r="K9">
-        <v>18.15420450052103</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.853711166818024</v>
       </c>
       <c r="M9">
-        <v>17.76771477030607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.0707422843157</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>73.7498608989514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.11347887822875</v>
+        <v>25.67464469712079</v>
       </c>
       <c r="C10">
-        <v>15.24850303397623</v>
+        <v>13.09478457779255</v>
       </c>
       <c r="D10">
-        <v>10.02609990299781</v>
+        <v>9.002600407598866</v>
       </c>
       <c r="E10">
-        <v>12.72826076910335</v>
+        <v>7.714222988399657</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.49608254491943</v>
+        <v>2.110205481307258</v>
       </c>
       <c r="H10">
-        <v>78.80581129002736</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.170493116123493</v>
+        <v>5.402273720290458</v>
       </c>
       <c r="K10">
-        <v>20.1955056938447</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.958739832479092</v>
       </c>
       <c r="M10">
-        <v>19.68854041060619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.73130534092967</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.47748091638198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16862189644845</v>
+        <v>26.61022746322934</v>
       </c>
       <c r="C11">
-        <v>15.98461683675248</v>
+        <v>13.72994550209474</v>
       </c>
       <c r="D11">
-        <v>10.44592186653743</v>
+        <v>9.146567985008764</v>
       </c>
       <c r="E11">
-        <v>13.17067628159012</v>
+        <v>7.757911710840956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.60324923532058</v>
+        <v>2.096245230552568</v>
       </c>
       <c r="H11">
-        <v>81.82470859003718</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.27680882364697</v>
+        <v>5.466187980644651</v>
       </c>
       <c r="K11">
-        <v>21.11497042083428</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.015425729029214</v>
       </c>
       <c r="M11">
-        <v>20.54942542318862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.0552141312141</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.07093658615283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.56764709447306</v>
+        <v>27.00689449690095</v>
       </c>
       <c r="C12">
-        <v>16.26424559082084</v>
+        <v>13.97065196658149</v>
       </c>
       <c r="D12">
-        <v>10.60836114930017</v>
+        <v>9.202138655381864</v>
       </c>
       <c r="E12">
-        <v>13.33863655884797</v>
+        <v>7.774984729473501</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.77658089876874</v>
+        <v>2.090907317414014</v>
       </c>
       <c r="H12">
-        <v>82.96576064694004</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.317812589338531</v>
+        <v>5.490698070863785</v>
       </c>
       <c r="K12">
-        <v>21.4628845010856</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.038311990324075</v>
       </c>
       <c r="M12">
-        <v>20.87444740683145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.18160448865767</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.05289034368475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.4817126315188</v>
+        <v>26.92140595425207</v>
       </c>
       <c r="C13">
-        <v>16.20396509378716</v>
+        <v>13.91879063600792</v>
       </c>
       <c r="D13">
-        <v>10.57340538153728</v>
+        <v>9.190121378937087</v>
       </c>
       <c r="E13">
-        <v>13.30243787188724</v>
+        <v>7.771282442625793</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.52397937712797</v>
+        <v>2.092059556981283</v>
       </c>
       <c r="H13">
-        <v>82.72006210202566</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.308946457072231</v>
+        <v>5.485404111155949</v>
       </c>
       <c r="K13">
-        <v>21.38794745147014</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.033317331981138</v>
       </c>
       <c r="M13">
-        <v>20.8044752456579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.15421117009941</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.84138393654139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.20145318403836</v>
+        <v>26.64283620807094</v>
       </c>
       <c r="C14">
-        <v>16.00759792955213</v>
+        <v>13.7497403578782</v>
       </c>
       <c r="D14">
-        <v>10.4592993290144</v>
+        <v>9.151117893678578</v>
       </c>
       <c r="E14">
-        <v>13.18448363511435</v>
+        <v>7.759305083340444</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.69982814815005</v>
+        <v>2.095807228079355</v>
       </c>
       <c r="H14">
-        <v>81.91860957388705</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.280166553835431</v>
+        <v>5.468197711279336</v>
       </c>
       <c r="K14">
-        <v>21.14359197882064</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.017279230363512</v>
       </c>
       <c r="M14">
-        <v>20.57617895743049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.06553508775681</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.15171417626813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.02975481170245</v>
+        <v>26.4723614420718</v>
       </c>
       <c r="C15">
-        <v>15.88746519827095</v>
+        <v>13.6462393499658</v>
       </c>
       <c r="D15">
-        <v>10.38931501166096</v>
+        <v>9.127368470279242</v>
       </c>
       <c r="E15">
-        <v>13.11230051284864</v>
+        <v>7.752040742670296</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.19467409340125</v>
+        <v>2.098095470058349</v>
       </c>
       <c r="H15">
-        <v>81.42750474672062</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.262638835379514</v>
+        <v>5.457701233781384</v>
       </c>
       <c r="K15">
-        <v>20.99391772666863</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.007645022969813</v>
       </c>
       <c r="M15">
-        <v>20.43624338225917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.01171706230827</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.72931047920258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.04438045118118</v>
+        <v>25.61663288069429</v>
       </c>
       <c r="C16">
-        <v>15.20046014801404</v>
+        <v>13.05326023787867</v>
       </c>
       <c r="D16">
-        <v>10.00101204957581</v>
+        <v>8.993331823818815</v>
       </c>
       <c r="E16">
-        <v>12.69938736846686</v>
+        <v>7.711436120675623</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.29240351708738</v>
+        <v>2.111111699848621</v>
       </c>
       <c r="H16">
-        <v>78.6080679073567</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.163642485517702</v>
+        <v>5.398134548434617</v>
       </c>
       <c r="K16">
-        <v>20.13531666787025</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.955225877417716</v>
       </c>
       <c r="M16">
-        <v>19.63209046188051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.71063754971944</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.30787576264514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.43764414867314</v>
+        <v>25.11055945631055</v>
       </c>
       <c r="C17">
-        <v>14.77944259252323</v>
+        <v>12.68903264597084</v>
       </c>
       <c r="D17">
-        <v>9.781041864602811</v>
+        <v>8.912840525749152</v>
       </c>
       <c r="E17">
-        <v>12.44645642939338</v>
+        <v>7.687359026807615</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.50308372661807</v>
+        <v>2.119025850620645</v>
       </c>
       <c r="H17">
-        <v>76.87173576780606</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.104107765688306</v>
+        <v>5.362039855391785</v>
       </c>
       <c r="K17">
-        <v>19.60692441206146</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.925441480234334</v>
       </c>
       <c r="M17">
-        <v>19.13602772360955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.53216518804705</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.8203057282208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.08749529103566</v>
+        <v>24.82134542311366</v>
       </c>
       <c r="C18">
-        <v>14.53714208969518</v>
+        <v>12.47915894270342</v>
       </c>
       <c r="D18">
-        <v>9.654384678025721</v>
+        <v>8.867144483889565</v>
       </c>
       <c r="E18">
-        <v>12.30101777524208</v>
+        <v>7.673786686715022</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.46985199738457</v>
+        <v>2.123557476558275</v>
       </c>
       <c r="H18">
-        <v>75.86981836470481</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.070270341917143</v>
+        <v>5.34141664287273</v>
       </c>
       <c r="K18">
-        <v>19.30207262601843</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.90913906152193</v>
       </c>
       <c r="M18">
-        <v>18.84942777759323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.43169009334457</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.96343682970009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.96870975180173</v>
+        <v>24.723727995416</v>
       </c>
       <c r="C19">
-        <v>14.45505243412014</v>
+        <v>12.40801545552295</v>
       </c>
       <c r="D19">
-        <v>9.611469799209447</v>
+        <v>8.851772465613902</v>
       </c>
       <c r="E19">
-        <v>12.25177351450538</v>
+        <v>7.669236147017262</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.11925075053134</v>
+        <v>2.125088804589993</v>
       </c>
       <c r="H19">
-        <v>75.52996712522095</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.058880248169936</v>
+        <v>5.33445523221724</v>
       </c>
       <c r="K19">
-        <v>19.19866649153018</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.903757838496664</v>
       </c>
       <c r="M19">
-        <v>18.75214686557968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.3980352206775</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.67305854824522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.5023460425304</v>
+        <v>25.16423499826429</v>
       </c>
       <c r="C20">
-        <v>14.82426894411675</v>
+        <v>12.72784005993753</v>
       </c>
       <c r="D20">
-        <v>9.804470304971796</v>
+        <v>8.921346030231222</v>
       </c>
       <c r="E20">
-        <v>12.4733751497183</v>
+        <v>7.689892859080148</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.69396347934924</v>
+        <v>2.118185606225428</v>
       </c>
       <c r="H20">
-        <v>77.05688912724455</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.110402665509776</v>
+        <v>5.365867393473032</v>
       </c>
       <c r="K20">
-        <v>19.66326258002771</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.928525374771181</v>
       </c>
       <c r="M20">
-        <v>19.18896095763198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.5509361507755</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.97878021091972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.28377628999343</v>
+        <v>26.72462445479766</v>
       </c>
       <c r="C21">
-        <v>16.06524279979362</v>
+        <v>13.79938323545814</v>
       </c>
       <c r="D21">
-        <v>10.49283320955807</v>
+        <v>9.162544443392751</v>
       </c>
       <c r="E21">
-        <v>13.21911488897215</v>
+        <v>7.762807886156489</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.94196596416812</v>
+        <v>2.094708009172549</v>
       </c>
       <c r="H21">
-        <v>82.15405010496436</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.288598654791763</v>
+        <v>5.47324251388756</v>
       </c>
       <c r="K21">
-        <v>21.21536275584148</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.021950210396595</v>
       </c>
       <c r="M21">
-        <v>20.64325355421139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.0914766951866</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.35427519997516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.44567314083831</v>
+        <v>27.88204790906594</v>
       </c>
       <c r="C22">
-        <v>16.88206216598296</v>
+        <v>14.50121711498439</v>
       </c>
       <c r="D22">
-        <v>10.9646446421733</v>
+        <v>9.326402530291443</v>
       </c>
       <c r="E22">
-        <v>13.70922910860093</v>
+        <v>7.813607829706684</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.35447619973458</v>
+        <v>2.079052412460351</v>
       </c>
       <c r="H22">
-        <v>85.47459848692445</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.409475687706806</v>
+        <v>5.545265056155428</v>
       </c>
       <c r="K22">
-        <v>22.22887825333534</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.091374542709541</v>
       </c>
       <c r="M22">
-        <v>21.58860053688626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.46675570379862</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.21427620409186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.82531279918887</v>
+        <v>27.26341260143457</v>
       </c>
       <c r="C23">
-        <v>16.4451879873172</v>
+        <v>14.12622541786552</v>
       </c>
       <c r="D23">
-        <v>10.71308181299017</v>
+        <v>9.238329925787056</v>
       </c>
       <c r="E23">
-        <v>13.44725666792253</v>
+        <v>7.786169090031198</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.53367620966304</v>
+        <v>2.087443776873192</v>
       </c>
       <c r="H23">
-        <v>83.70231524645838</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.344511338510046</v>
+        <v>5.506621790723279</v>
       </c>
       <c r="K23">
-        <v>21.68760935569078</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.053502449990868</v>
       </c>
       <c r="M23">
-        <v>21.08417005587469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.26430140061505</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.68713987666972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47309853435083</v>
+        <v>25.13996292679261</v>
       </c>
       <c r="C24">
-        <v>14.80400380636375</v>
+        <v>12.71029675574519</v>
       </c>
       <c r="D24">
-        <v>9.79387893058505</v>
+        <v>8.917498895512583</v>
       </c>
       <c r="E24">
-        <v>12.46120529809706</v>
+        <v>7.688746479821839</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.60768103504543</v>
+        <v>2.118565536462725</v>
       </c>
       <c r="H24">
-        <v>76.97319292541678</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.1075555349531</v>
+        <v>5.364136570815884</v>
       </c>
       <c r="K24">
-        <v>19.63779550891893</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.927128598910619</v>
       </c>
       <c r="M24">
-        <v>19.16503428812254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.54244318710012</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.90713913565071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.88857493049822</v>
+        <v>23.06000871834826</v>
       </c>
       <c r="C25">
-        <v>13.02603524995745</v>
+        <v>11.16682754847547</v>
       </c>
       <c r="D25">
-        <v>8.865311308320548</v>
+        <v>8.594121777292473</v>
       </c>
       <c r="E25">
-        <v>11.39867764677455</v>
+        <v>7.593988824687933</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.97626783821589</v>
+        <v>2.151401014786396</v>
       </c>
       <c r="H25">
-        <v>69.58665795989734</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.867231429863368</v>
+        <v>5.215493686761815</v>
       </c>
       <c r="K25">
-        <v>17.38860255008777</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.822129561826713</v>
       </c>
       <c r="M25">
-        <v>17.04403610526312</v>
+        <v>14.84625019406268</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>71.62171095068535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57620478059491</v>
+        <v>14.49915591064679</v>
       </c>
       <c r="C2">
-        <v>9.996926531380678</v>
+        <v>6.480520722397914</v>
       </c>
       <c r="D2">
-        <v>8.372178709635671</v>
+        <v>9.224487125725203</v>
       </c>
       <c r="E2">
-        <v>7.530374003278705</v>
+        <v>8.572588249665248</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.17547208875481</v>
+        <v>2.142976280816729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.107924252388953</v>
+        <v>5.193677347994406</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.63226132564344</v>
       </c>
       <c r="L2">
-        <v>7.76760326939144</v>
+        <v>7.175360843130633</v>
       </c>
       <c r="M2">
-        <v>14.39444046195905</v>
+        <v>11.22868676657942</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.42050572690921</v>
       </c>
       <c r="O2">
-        <v>66.91092411350377</v>
+        <v>22.56113659690129</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.59806048163991</v>
+        <v>13.75682843025938</v>
       </c>
       <c r="C3">
-        <v>9.175862226270812</v>
+        <v>6.379477583620434</v>
       </c>
       <c r="D3">
-        <v>8.230628654334103</v>
+        <v>9.050277441784054</v>
       </c>
       <c r="E3">
-        <v>7.490065654633923</v>
+        <v>8.577524406774616</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.191922017447327</v>
+        <v>2.148413347706147</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.035263718126641</v>
+        <v>5.207627976432406</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.08261173101879</v>
       </c>
       <c r="L3">
-        <v>7.743175462294007</v>
+        <v>7.116001905249705</v>
       </c>
       <c r="M3">
-        <v>14.12235834411347</v>
+        <v>10.96965873388973</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.62813054680449</v>
       </c>
       <c r="O3">
-        <v>63.65644787092796</v>
+        <v>22.54339269126924</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.01120793013366</v>
+        <v>13.28647789921481</v>
       </c>
       <c r="C4">
-        <v>8.65589937799624</v>
+        <v>6.316448524474821</v>
       </c>
       <c r="D4">
-        <v>8.147772247307747</v>
+        <v>8.946494194670237</v>
       </c>
       <c r="E4">
-        <v>7.466422210999264</v>
+        <v>8.58372583277507</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.202144607683851</v>
+        <v>2.151859981517073</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.990521873264806</v>
+        <v>5.216513816227043</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.73375293580011</v>
       </c>
       <c r="L4">
-        <v>7.733871880883991</v>
+        <v>7.082060431350805</v>
       </c>
       <c r="M4">
-        <v>13.97106787651659</v>
+        <v>10.81228456616052</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.75883124975998</v>
       </c>
       <c r="O4">
-        <v>61.6265296455817</v>
+        <v>22.5459709607141</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.77562667984328</v>
+        <v>13.09138269009588</v>
       </c>
       <c r="C5">
-        <v>8.439794185409175</v>
+        <v>6.29052462174315</v>
       </c>
       <c r="D5">
-        <v>8.114987451797234</v>
+        <v>8.905039233464695</v>
       </c>
       <c r="E5">
-        <v>7.457029665929969</v>
+        <v>8.587036305407686</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.206348262208629</v>
+        <v>2.153292322233857</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.972225511519282</v>
+        <v>5.220216122609418</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.588899698809479</v>
       </c>
       <c r="L5">
-        <v>7.731447163628833</v>
+        <v>7.068859607306606</v>
       </c>
       <c r="M5">
-        <v>13.91323713563794</v>
+        <v>10.748650423177</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.81291969318581</v>
       </c>
       <c r="O5">
-        <v>60.79142641467767</v>
+        <v>22.55030626468506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.73672839242575</v>
+        <v>13.05878826307087</v>
       </c>
       <c r="C6">
-        <v>8.403649283357687</v>
+        <v>6.286205827181342</v>
       </c>
       <c r="D6">
-        <v>8.109601653516666</v>
+        <v>8.898207314852662</v>
       </c>
       <c r="E6">
-        <v>7.455483712057921</v>
+        <v>8.587632911946258</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.207048756005708</v>
+        <v>2.153531857699396</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.969182720520852</v>
+        <v>5.220835817408376</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.56468997824785</v>
       </c>
       <c r="L6">
-        <v>7.731125251863219</v>
+        <v>7.066705708329538</v>
       </c>
       <c r="M6">
-        <v>13.9038610928012</v>
+        <v>10.73811632486768</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.82195148293465</v>
       </c>
       <c r="O6">
-        <v>60.65228690543745</v>
+        <v>22.55122149904087</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.00801616784011</v>
+        <v>13.28386029457252</v>
       </c>
       <c r="C7">
-        <v>8.65300226254098</v>
+        <v>6.316099860647852</v>
       </c>
       <c r="D7">
-        <v>8.147326182382894</v>
+        <v>8.945931679126682</v>
       </c>
       <c r="E7">
-        <v>7.466294602793255</v>
+        <v>8.583767325617467</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.202201137486551</v>
+        <v>2.151879185203567</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.990275418828251</v>
+        <v>5.216563416826313</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.731810041977862</v>
       </c>
       <c r="L7">
-        <v>7.733833730246861</v>
+        <v>7.081879846936586</v>
       </c>
       <c r="M7">
-        <v>13.97027266387313</v>
+        <v>10.8114242581827</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.75955733460321</v>
       </c>
       <c r="O7">
-        <v>61.61529889236426</v>
+        <v>22.54601626533161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.23613756917656</v>
+        <v>14.24635273188977</v>
       </c>
       <c r="C8">
-        <v>9.716953027471661</v>
+        <v>6.445891580707512</v>
       </c>
       <c r="D8">
-        <v>8.322504787191122</v>
+        <v>9.163781983114653</v>
       </c>
       <c r="E8">
-        <v>7.516223179373041</v>
+        <v>8.573623778199817</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.181123200395792</v>
+        <v>2.144828875973163</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.082877169436399</v>
+        <v>5.198421553902264</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.44519452255136</v>
       </c>
       <c r="L8">
-        <v>7.757957489626286</v>
+        <v>7.154374590463824</v>
       </c>
       <c r="M8">
-        <v>14.29726446458823</v>
+        <v>11.13907305215261</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.49143759407646</v>
       </c>
       <c r="O8">
-        <v>65.79532782335981</v>
+        <v>22.55216009058958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.75266535990819</v>
+        <v>16.00987059752577</v>
       </c>
       <c r="C9">
-        <v>11.69081405156706</v>
+        <v>6.692201288690327</v>
       </c>
       <c r="D9">
-        <v>8.700352424978043</v>
+        <v>9.614551733850158</v>
       </c>
       <c r="E9">
-        <v>7.624794031090606</v>
+        <v>8.579518816230387</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.140387419100821</v>
+        <v>2.131834170026844</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.265130469686108</v>
+        <v>5.165349592092921</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.81679854594136</v>
       </c>
       <c r="L9">
-        <v>7.853711166818024</v>
+        <v>7.316351950180226</v>
       </c>
       <c r="M9">
-        <v>15.0707422843157</v>
+        <v>11.79156677593493</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.99036310779034</v>
       </c>
       <c r="O9">
-        <v>73.7498608989514</v>
+        <v>22.67572175233533</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67464469712079</v>
+        <v>17.2212081849635</v>
       </c>
       <c r="C10">
-        <v>13.09478457779255</v>
+        <v>6.867734878308358</v>
       </c>
       <c r="D10">
-        <v>9.002600407598866</v>
+        <v>9.957856746823685</v>
       </c>
       <c r="E10">
-        <v>7.714222988399657</v>
+        <v>8.600443169268344</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.110205481307258</v>
+        <v>2.122752313645462</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.402273720290458</v>
+        <v>5.142527071546698</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.88134083479181</v>
       </c>
       <c r="L10">
-        <v>7.958739832479092</v>
+        <v>7.447320212785344</v>
       </c>
       <c r="M10">
-        <v>15.73130534092967</v>
+        <v>12.2728964242625</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.63608981426626</v>
       </c>
       <c r="O10">
-        <v>79.47748091638198</v>
+        <v>22.84077972639764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.61022746322934</v>
+        <v>17.75272910349726</v>
       </c>
       <c r="C11">
-        <v>13.72994550209474</v>
+        <v>6.946341703190809</v>
       </c>
       <c r="D11">
-        <v>9.146567985008764</v>
+        <v>10.11621240776152</v>
       </c>
       <c r="E11">
-        <v>7.757911710840956</v>
+        <v>8.613755460161935</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.096245230552568</v>
+        <v>2.118712123362238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.466187980644651</v>
+        <v>5.132453491980648</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.34088836147436</v>
       </c>
       <c r="L11">
-        <v>8.015425729029214</v>
+        <v>7.50946487036131</v>
       </c>
       <c r="M11">
-        <v>16.0552141312141</v>
+        <v>12.4915011471068</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.47766210923662</v>
       </c>
       <c r="O11">
-        <v>82.07093658615283</v>
+        <v>22.93333855578745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.00689449690095</v>
+        <v>17.95112469150007</v>
       </c>
       <c r="C12">
-        <v>13.97065196658149</v>
+        <v>6.975924669653008</v>
       </c>
       <c r="D12">
-        <v>9.202138655381864</v>
+        <v>10.17645607673221</v>
       </c>
       <c r="E12">
-        <v>7.774984729473501</v>
+        <v>8.619357760741424</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.090907317414014</v>
+        <v>2.117194476618126</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.490698070863785</v>
+        <v>5.128682321419239</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.51140100725611</v>
       </c>
       <c r="L12">
-        <v>8.038311990324075</v>
+        <v>7.53336299791329</v>
       </c>
       <c r="M12">
-        <v>16.18160448865767</v>
+        <v>12.57417160765406</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.41804011625057</v>
       </c>
       <c r="O12">
-        <v>83.05289034368475</v>
+        <v>22.97100990341925</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.92140595425207</v>
+        <v>17.908525657647</v>
       </c>
       <c r="C13">
-        <v>13.91879063600792</v>
+        <v>6.96956168294699</v>
       </c>
       <c r="D13">
-        <v>9.190121378937087</v>
+        <v>10.16346971614879</v>
       </c>
       <c r="E13">
-        <v>7.771282442625793</v>
+        <v>8.618125991885393</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.092059556981283</v>
+        <v>2.11752079634054</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.485404111155949</v>
+        <v>5.129492591238953</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.47483331729255</v>
       </c>
       <c r="L13">
-        <v>8.033317331981138</v>
+        <v>7.528199921597295</v>
       </c>
       <c r="M13">
-        <v>16.15421117009941</v>
+        <v>12.55637283536512</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.43086462796156</v>
       </c>
       <c r="O13">
-        <v>82.84138393654139</v>
+        <v>22.96277839187618</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.64283620807094</v>
+        <v>17.76910928226762</v>
       </c>
       <c r="C14">
-        <v>13.7497403578782</v>
+        <v>6.948779216904057</v>
       </c>
       <c r="D14">
-        <v>9.151117893678578</v>
+        <v>10.12116332059207</v>
       </c>
       <c r="E14">
-        <v>7.759305083340444</v>
+        <v>8.614205026241086</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.095807228079355</v>
+        <v>2.118587024358523</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.468197711279336</v>
+        <v>5.132142369350555</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.35498657235836</v>
       </c>
       <c r="L14">
-        <v>8.017279230363512</v>
+        <v>7.511423684138808</v>
       </c>
       <c r="M14">
-        <v>16.06553508775681</v>
+        <v>12.4983050267293</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.47274966140325</v>
       </c>
       <c r="O14">
-        <v>82.15171417626813</v>
+        <v>22.93638464307543</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4723614420718</v>
+        <v>17.68333590700537</v>
       </c>
       <c r="C15">
-        <v>13.6462393499658</v>
+        <v>6.936025308050901</v>
       </c>
       <c r="D15">
-        <v>9.127368470279242</v>
+        <v>10.09528458251781</v>
       </c>
       <c r="E15">
-        <v>7.752040742670296</v>
+        <v>8.611876879602745</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.098095470058349</v>
+        <v>2.119241694294072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.457701233781384</v>
+        <v>5.13377107006319</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.28112154437876</v>
       </c>
       <c r="L15">
-        <v>8.007645022969813</v>
+        <v>7.501195214881906</v>
       </c>
       <c r="M15">
-        <v>16.01171706230827</v>
+        <v>12.46272078089045</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.4984531269885</v>
       </c>
       <c r="O15">
-        <v>81.72931047920258</v>
+        <v>22.92056230637233</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61663288069429</v>
+        <v>17.18607249137215</v>
       </c>
       <c r="C16">
-        <v>13.05326023787867</v>
+        <v>6.862572259810351</v>
       </c>
       <c r="D16">
-        <v>8.993331823818815</v>
+        <v>9.947548622717068</v>
       </c>
       <c r="E16">
-        <v>7.711436120675623</v>
+        <v>8.599650855011259</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.111111699848621</v>
+        <v>2.123018115034026</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.398134548434617</v>
+        <v>5.143191536168577</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.8508148513696</v>
       </c>
       <c r="L16">
-        <v>7.955225877417716</v>
+        <v>7.443310236421809</v>
       </c>
       <c r="M16">
-        <v>15.71063754971944</v>
+        <v>12.2585977388152</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.64649657894379</v>
       </c>
       <c r="O16">
-        <v>79.30787576264514</v>
+        <v>22.83509169267084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11055945631055</v>
+        <v>16.87595854011974</v>
       </c>
       <c r="C17">
-        <v>12.68903264597084</v>
+        <v>6.817188689434708</v>
       </c>
       <c r="D17">
-        <v>8.912840525749152</v>
+        <v>9.857450211032715</v>
       </c>
       <c r="E17">
-        <v>7.687359026807615</v>
+        <v>8.593133337164412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.119025850620645</v>
+        <v>2.125357610662337</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.362039855391785</v>
+        <v>5.149049077088037</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.58053710255723</v>
       </c>
       <c r="L17">
-        <v>7.925441480234334</v>
+        <v>7.408454356457956</v>
       </c>
       <c r="M17">
-        <v>15.53216518804705</v>
+        <v>12.13323986533543</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.73800108721862</v>
       </c>
       <c r="O17">
-        <v>77.8203057282208</v>
+        <v>22.78721097153161</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82134542311366</v>
+        <v>16.69575445919551</v>
       </c>
       <c r="C18">
-        <v>12.47915894270342</v>
+        <v>6.790968354140552</v>
       </c>
       <c r="D18">
-        <v>8.867144483889565</v>
+        <v>9.805835623878282</v>
       </c>
       <c r="E18">
-        <v>7.673786686715022</v>
+        <v>8.589740762960579</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.123557476558275</v>
+        <v>2.126711862616606</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.34141664287273</v>
+        <v>5.152447271453055</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.42275100573841</v>
       </c>
       <c r="L18">
-        <v>7.90913906152193</v>
+        <v>7.388647985432654</v>
       </c>
       <c r="M18">
-        <v>15.43169009334457</v>
+        <v>12.06110714687032</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.79089065218098</v>
       </c>
       <c r="O18">
-        <v>76.96343682970009</v>
+        <v>22.76130942495251</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.723727995416</v>
+        <v>16.63442791137085</v>
       </c>
       <c r="C19">
-        <v>12.40801545552295</v>
+        <v>6.782070687262689</v>
       </c>
       <c r="D19">
-        <v>8.851772465613902</v>
+        <v>9.788396624062914</v>
       </c>
       <c r="E19">
-        <v>7.669236147017262</v>
+        <v>8.588652786752947</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.125088804589993</v>
+        <v>2.12717189666396</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.33445523221724</v>
+        <v>5.153602864874853</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.36892587313092</v>
       </c>
       <c r="L19">
-        <v>7.903757838496664</v>
+        <v>7.38198353400837</v>
       </c>
       <c r="M19">
-        <v>15.3980352206775</v>
+        <v>12.03668097315476</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.80884321853804</v>
       </c>
       <c r="O19">
-        <v>76.67305854824522</v>
+        <v>22.75281764762874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.16423499826429</v>
+        <v>16.90916118346625</v>
       </c>
       <c r="C20">
-        <v>12.72784005993753</v>
+        <v>6.822031986104957</v>
       </c>
       <c r="D20">
-        <v>8.921346030231222</v>
+        <v>9.867020123076628</v>
       </c>
       <c r="E20">
-        <v>7.689892859080148</v>
+        <v>8.593790167060543</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.118185606225428</v>
+        <v>2.125107679400137</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.365867393473032</v>
+        <v>5.148422527326074</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.60954939346939</v>
       </c>
       <c r="L20">
-        <v>7.928525374771181</v>
+        <v>7.41213982536882</v>
       </c>
       <c r="M20">
-        <v>15.5509361507755</v>
+        <v>12.14658799885887</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.72823366901716</v>
       </c>
       <c r="O20">
-        <v>77.97878021091972</v>
+        <v>22.79213762252992</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.72462445479766</v>
+        <v>17.81013787932759</v>
       </c>
       <c r="C21">
-        <v>13.79938323545814</v>
+        <v>6.954888549368348</v>
       </c>
       <c r="D21">
-        <v>9.162544443392751</v>
+        <v>10.13358246978554</v>
       </c>
       <c r="E21">
-        <v>7.762807886156489</v>
+        <v>8.615341351110244</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.094708009172549</v>
+        <v>2.118273520775297</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.47324251388756</v>
+        <v>5.131362892548545</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.39028329315377</v>
       </c>
       <c r="L21">
-        <v>8.021950210396595</v>
+        <v>7.516341387652177</v>
       </c>
       <c r="M21">
-        <v>16.0914766951866</v>
+        <v>12.51536438900259</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.460437116704</v>
       </c>
       <c r="O21">
-        <v>82.35427519997516</v>
+        <v>22.94406511962605</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.88204790906594</v>
+        <v>18.38217352121466</v>
       </c>
       <c r="C22">
-        <v>14.50121711498439</v>
+        <v>7.040645758660874</v>
       </c>
       <c r="D22">
-        <v>9.326402530291443</v>
+        <v>10.30940101419422</v>
       </c>
       <c r="E22">
-        <v>7.813607829706684</v>
+        <v>8.632705013698907</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.079052412460351</v>
+        <v>2.113878190032803</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.545265056155428</v>
+        <v>5.120466416321112</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.88011360469091</v>
       </c>
       <c r="L22">
-        <v>8.091374542709541</v>
+        <v>7.586570669077611</v>
       </c>
       <c r="M22">
-        <v>16.46675570379862</v>
+        <v>12.75571444829699</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.28756925772032</v>
       </c>
       <c r="O22">
-        <v>85.21427620409186</v>
+        <v>23.05868794477667</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26341260143457</v>
+        <v>18.07842339720653</v>
       </c>
       <c r="C23">
-        <v>14.12622541786552</v>
+        <v>6.994974884071087</v>
       </c>
       <c r="D23">
-        <v>9.238329925787056</v>
+        <v>10.2154277496482</v>
       </c>
       <c r="E23">
-        <v>7.786169090031198</v>
+        <v>8.623132445000033</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.087443776873192</v>
+        <v>2.116217834685458</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.506621790723279</v>
+        <v>5.126259221387951</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.62053490254682</v>
       </c>
       <c r="L23">
-        <v>8.053502449990868</v>
+        <v>7.548894536982815</v>
       </c>
       <c r="M23">
-        <v>16.26430140061505</v>
+        <v>12.62751411061664</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.37964251585457</v>
       </c>
       <c r="O23">
-        <v>83.68713987666972</v>
+        <v>22.99607307585061</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.13996292679261</v>
+        <v>16.89415622883647</v>
       </c>
       <c r="C24">
-        <v>12.71029675574519</v>
+        <v>6.819842732221026</v>
       </c>
       <c r="D24">
-        <v>8.917498895512583</v>
+        <v>9.862692989338564</v>
       </c>
       <c r="E24">
-        <v>7.688746479821839</v>
+        <v>8.593492111467782</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.118565536462725</v>
+        <v>2.125220644466469</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.364136570815884</v>
+        <v>5.148705695044469</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.59644041513416</v>
       </c>
       <c r="L24">
-        <v>7.927128598910619</v>
+        <v>7.410472899656765</v>
       </c>
       <c r="M24">
-        <v>15.54244318710012</v>
+        <v>12.14055349874069</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.73264863751357</v>
       </c>
       <c r="O24">
-        <v>77.90713913565071</v>
+        <v>22.78990522809955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.06000871834826</v>
+        <v>15.54708815840361</v>
       </c>
       <c r="C25">
-        <v>11.16682754847547</v>
+        <v>6.626494404338853</v>
       </c>
       <c r="D25">
-        <v>8.594121777292473</v>
+        <v>9.4903170706451</v>
       </c>
       <c r="E25">
-        <v>7.593988824687933</v>
+        <v>8.575073656875366</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.151401014786396</v>
+        <v>2.135264745076817</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.215493686761815</v>
+        <v>5.174033561580145</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.40654511847753</v>
       </c>
       <c r="L25">
-        <v>7.822129561826713</v>
+        <v>7.270421113238401</v>
       </c>
       <c r="M25">
-        <v>14.84625019406268</v>
+        <v>11.61442461378454</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.12339315961884</v>
       </c>
       <c r="O25">
-        <v>71.62171095068535</v>
+        <v>22.62970502851796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.49915591064679</v>
+        <v>17.30729222605736</v>
       </c>
       <c r="C2">
-        <v>6.480520722397914</v>
+        <v>7.458549524718691</v>
       </c>
       <c r="D2">
-        <v>9.224487125725203</v>
+        <v>13.87477634477309</v>
       </c>
       <c r="E2">
-        <v>8.572588249665248</v>
+        <v>14.36979348599436</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.142976280816729</v>
+        <v>3.734287269652385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.193677347994406</v>
+        <v>8.680378389478513</v>
       </c>
       <c r="K2">
-        <v>10.63226132564344</v>
+        <v>13.05398466323908</v>
       </c>
       <c r="L2">
-        <v>7.175360843130633</v>
+        <v>12.12290868794631</v>
       </c>
       <c r="M2">
-        <v>11.22868676657942</v>
+        <v>17.74375959756803</v>
       </c>
       <c r="N2">
-        <v>15.42050572690921</v>
+        <v>23.69736278369955</v>
       </c>
       <c r="O2">
-        <v>22.56113659690129</v>
+        <v>34.68587127431238</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.75682843025938</v>
+        <v>17.18677291564855</v>
       </c>
       <c r="C3">
-        <v>6.379477583620434</v>
+        <v>7.425098116930809</v>
       </c>
       <c r="D3">
-        <v>9.050277441784054</v>
+        <v>13.87777823367869</v>
       </c>
       <c r="E3">
-        <v>8.577524406774616</v>
+        <v>14.39546135602054</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.148413347706147</v>
+        <v>3.736373415549733</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.207627976432406</v>
+        <v>8.68551476181595</v>
       </c>
       <c r="K3">
-        <v>10.08261173101879</v>
+        <v>12.96748133574138</v>
       </c>
       <c r="L3">
-        <v>7.116001905249705</v>
+        <v>12.13613344316188</v>
       </c>
       <c r="M3">
-        <v>10.96965873388973</v>
+        <v>17.73866160537809</v>
       </c>
       <c r="N3">
-        <v>15.62813054680449</v>
+        <v>23.7596625166325</v>
       </c>
       <c r="O3">
-        <v>22.54339269126924</v>
+        <v>34.76198623989879</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.28647789921481</v>
+        <v>17.11581112039163</v>
       </c>
       <c r="C4">
-        <v>6.316448524474821</v>
+        <v>7.404117302737166</v>
       </c>
       <c r="D4">
-        <v>8.946494194670237</v>
+        <v>13.88188508070126</v>
       </c>
       <c r="E4">
-        <v>8.58372583277507</v>
+        <v>14.41272521874182</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.151859981517073</v>
+        <v>3.737723296768225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.216513816227043</v>
+        <v>8.688841695596224</v>
       </c>
       <c r="K4">
-        <v>9.73375293580011</v>
+        <v>12.91651078041265</v>
       </c>
       <c r="L4">
-        <v>7.082060431350805</v>
+        <v>12.14562875516223</v>
       </c>
       <c r="M4">
-        <v>10.81228456616052</v>
+        <v>17.73801024168178</v>
       </c>
       <c r="N4">
-        <v>15.75883124975998</v>
+        <v>23.79977174909328</v>
       </c>
       <c r="O4">
-        <v>22.5459709607141</v>
+        <v>34.81411826974769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09138269009588</v>
+        <v>17.0876838870935</v>
       </c>
       <c r="C5">
-        <v>6.29052462174315</v>
+        <v>7.395458129557345</v>
       </c>
       <c r="D5">
-        <v>8.905039233464695</v>
+        <v>13.8841289223226</v>
       </c>
       <c r="E5">
-        <v>8.587036305407686</v>
+        <v>14.42013901172524</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.153292322233857</v>
+        <v>3.738290784282964</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.220216122609418</v>
+        <v>8.690241118769206</v>
       </c>
       <c r="K5">
-        <v>9.588899698809479</v>
+        <v>12.89629699351698</v>
       </c>
       <c r="L5">
-        <v>7.068859607306606</v>
+        <v>12.14984455251038</v>
       </c>
       <c r="M5">
-        <v>10.748650423177</v>
+        <v>17.7383704322487</v>
       </c>
       <c r="N5">
-        <v>15.81291969318581</v>
+        <v>23.81658477555652</v>
       </c>
       <c r="O5">
-        <v>22.55030626468506</v>
+        <v>34.83671896138645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.05878826307087</v>
+        <v>17.08306185973282</v>
       </c>
       <c r="C6">
-        <v>6.286205827181342</v>
+        <v>7.394013727386425</v>
       </c>
       <c r="D6">
-        <v>8.898207314852662</v>
+        <v>13.8845359800412</v>
       </c>
       <c r="E6">
-        <v>8.587632911946258</v>
+        <v>14.42139294957485</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.153531857699396</v>
+        <v>3.738386067673353</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.220835817408376</v>
+        <v>8.690476133142814</v>
       </c>
       <c r="K6">
-        <v>9.56468997824785</v>
+        <v>12.89297467620984</v>
       </c>
       <c r="L6">
-        <v>7.066705708329538</v>
+        <v>12.15056551870108</v>
       </c>
       <c r="M6">
-        <v>10.73811632486768</v>
+        <v>17.73846809084901</v>
       </c>
       <c r="N6">
-        <v>15.82195148293465</v>
+        <v>23.81940487989565</v>
       </c>
       <c r="O6">
-        <v>22.55122149904087</v>
+        <v>34.84055369426893</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.28386029457252</v>
+        <v>17.115428552911</v>
       </c>
       <c r="C7">
-        <v>6.316099860647852</v>
+        <v>7.404000962488285</v>
       </c>
       <c r="D7">
-        <v>8.945931679126682</v>
+        <v>13.88191303169624</v>
       </c>
       <c r="E7">
-        <v>8.583767325617467</v>
+        <v>14.41282367001332</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.151879185203567</v>
+        <v>3.737730879578614</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.216563416826313</v>
+        <v>8.688860391721622</v>
       </c>
       <c r="K7">
-        <v>9.731810041977862</v>
+        <v>12.91623589090817</v>
       </c>
       <c r="L7">
-        <v>7.081879846936586</v>
+        <v>12.1456842076803</v>
       </c>
       <c r="M7">
-        <v>10.8114242581827</v>
+        <v>17.73801256332384</v>
       </c>
       <c r="N7">
-        <v>15.75955733460321</v>
+        <v>23.79999659812694</v>
       </c>
       <c r="O7">
-        <v>22.54601626533161</v>
+        <v>34.81441757930079</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.24635273188977</v>
+        <v>17.26512298280721</v>
       </c>
       <c r="C8">
-        <v>6.445891580707512</v>
+        <v>7.447108132235031</v>
       </c>
       <c r="D8">
-        <v>9.163781983114653</v>
+        <v>13.87534225531797</v>
       </c>
       <c r="E8">
-        <v>8.573623778199817</v>
+        <v>14.37833198883945</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.144828875973163</v>
+        <v>3.734992289020981</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.198421553902264</v>
+        <v>8.68211354123695</v>
       </c>
       <c r="K8">
-        <v>10.44519452255136</v>
+        <v>13.02372480395378</v>
       </c>
       <c r="L8">
-        <v>7.154374590463824</v>
+        <v>12.1271834940252</v>
       </c>
       <c r="M8">
-        <v>11.13907305215261</v>
+        <v>17.74148877662572</v>
       </c>
       <c r="N8">
-        <v>15.49143759407646</v>
+        <v>23.71845907509869</v>
       </c>
       <c r="O8">
-        <v>22.55216009058958</v>
+        <v>34.71099515383916</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.00987059752577</v>
+        <v>17.58155476580446</v>
       </c>
       <c r="C9">
-        <v>6.692201288690327</v>
+        <v>7.528065133270803</v>
       </c>
       <c r="D9">
-        <v>9.614551733850158</v>
+        <v>13.88036536210647</v>
       </c>
       <c r="E9">
-        <v>8.579518816230387</v>
+        <v>14.32260219701752</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.131834170026844</v>
+        <v>3.730166752569117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.165349592092921</v>
+        <v>8.670251482943234</v>
       </c>
       <c r="K9">
-        <v>11.81679854594136</v>
+        <v>13.25067045923755</v>
       </c>
       <c r="L9">
-        <v>7.316351950180226</v>
+        <v>12.10179047319698</v>
       </c>
       <c r="M9">
-        <v>11.79156677593493</v>
+        <v>17.76786514110492</v>
       </c>
       <c r="N9">
-        <v>14.99036310779034</v>
+        <v>23.57324054912487</v>
       </c>
       <c r="O9">
-        <v>22.67572175233533</v>
+        <v>34.55103655370038</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.2212081849635</v>
+        <v>17.8262794622818</v>
       </c>
       <c r="C10">
-        <v>6.867734878308358</v>
+        <v>7.585269494551017</v>
       </c>
       <c r="D10">
-        <v>9.957856746823685</v>
+        <v>13.89489221211767</v>
       </c>
       <c r="E10">
-        <v>8.600443169268344</v>
+        <v>14.28888619440412</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.122752313645462</v>
+        <v>3.72695009625276</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.142527071546698</v>
+        <v>8.662362842355051</v>
       </c>
       <c r="K10">
-        <v>12.88134083479181</v>
+        <v>13.42608217585228</v>
       </c>
       <c r="L10">
-        <v>7.447320212785344</v>
+        <v>12.08973625825656</v>
       </c>
       <c r="M10">
-        <v>12.2728964242625</v>
+        <v>17.79901075355746</v>
       </c>
       <c r="N10">
-        <v>14.63608981426626</v>
+        <v>23.47541349556935</v>
       </c>
       <c r="O10">
-        <v>22.84077972639764</v>
+        <v>34.45967486928514</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75272910349726</v>
+        <v>17.93988843721434</v>
       </c>
       <c r="C11">
-        <v>6.946341703190809</v>
+        <v>7.610779312642106</v>
       </c>
       <c r="D11">
-        <v>10.11621240776152</v>
+        <v>13.90383232548671</v>
       </c>
       <c r="E11">
-        <v>8.613755460161935</v>
+        <v>14.27511082100914</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.118712123362238</v>
+        <v>3.72555738319601</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.132453491980648</v>
+        <v>8.658951874905609</v>
       </c>
       <c r="K11">
-        <v>13.34088836147436</v>
+        <v>13.50750248109059</v>
       </c>
       <c r="L11">
-        <v>7.50946487036131</v>
+        <v>12.08567790637643</v>
       </c>
       <c r="M11">
-        <v>12.4915011471068</v>
+        <v>17.81569654569219</v>
       </c>
       <c r="N11">
-        <v>14.47766210923662</v>
+        <v>23.43281692365373</v>
       </c>
       <c r="O11">
-        <v>22.93333855578745</v>
+        <v>34.42379808211001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.95112469150007</v>
+        <v>17.98320449624672</v>
       </c>
       <c r="C12">
-        <v>6.975924669653008</v>
+        <v>7.620363730786968</v>
       </c>
       <c r="D12">
-        <v>10.17645607673221</v>
+        <v>13.90755079786095</v>
       </c>
       <c r="E12">
-        <v>8.619357760741424</v>
+        <v>14.27011852776014</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.117194476618126</v>
+        <v>3.725040089378485</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.128682321419239</v>
+        <v>8.657685645336318</v>
       </c>
       <c r="K12">
-        <v>13.51140100725611</v>
+        <v>13.53854511593351</v>
       </c>
       <c r="L12">
-        <v>7.53336299791329</v>
+        <v>12.08434528484931</v>
       </c>
       <c r="M12">
-        <v>12.57417160765406</v>
+        <v>17.82237335541522</v>
       </c>
       <c r="N12">
-        <v>14.41804011625057</v>
+        <v>23.41695943207879</v>
       </c>
       <c r="O12">
-        <v>22.97100990341925</v>
+        <v>34.41103009517261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.908525657647</v>
+        <v>17.97386303213898</v>
       </c>
       <c r="C13">
-        <v>6.96956168294699</v>
+        <v>7.618302946643772</v>
       </c>
       <c r="D13">
-        <v>10.16346971614879</v>
+        <v>13.90673518438081</v>
       </c>
       <c r="E13">
-        <v>8.618125991885393</v>
+        <v>14.27118374678597</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.11752079634054</v>
+        <v>3.725151049610312</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.129492591238953</v>
+        <v>8.657957221290538</v>
       </c>
       <c r="K13">
-        <v>13.47483331729255</v>
+        <v>13.53185053606183</v>
       </c>
       <c r="L13">
-        <v>7.528199921597295</v>
+        <v>12.08462321981757</v>
       </c>
       <c r="M13">
-        <v>12.55637283536512</v>
+        <v>17.82091951344733</v>
       </c>
       <c r="N13">
-        <v>14.43086462796156</v>
+        <v>23.42036250635288</v>
       </c>
       <c r="O13">
-        <v>22.96277839187618</v>
+        <v>34.41374353385309</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76910928226762</v>
+        <v>17.94344635978083</v>
       </c>
       <c r="C14">
-        <v>6.948779216904057</v>
+        <v>7.61156935421298</v>
       </c>
       <c r="D14">
-        <v>10.12116332059207</v>
+        <v>13.90413158545828</v>
       </c>
       <c r="E14">
-        <v>8.614205026241086</v>
+        <v>14.27469561281945</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.118587024358523</v>
+        <v>3.72551462306029</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.132142369350555</v>
+        <v>8.658847192418357</v>
       </c>
       <c r="K14">
-        <v>13.35498657235836</v>
+        <v>13.51005229116482</v>
       </c>
       <c r="L14">
-        <v>7.511423684138808</v>
+        <v>12.08556418301466</v>
       </c>
       <c r="M14">
-        <v>12.4983050267293</v>
+        <v>17.81623869307485</v>
       </c>
       <c r="N14">
-        <v>14.47274966140325</v>
+        <v>23.43150685506631</v>
       </c>
       <c r="O14">
-        <v>22.93638464307543</v>
+        <v>34.42273126088586</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.68333590700537</v>
+        <v>17.9248526641826</v>
       </c>
       <c r="C15">
-        <v>6.936025308050901</v>
+        <v>7.60743493430448</v>
       </c>
       <c r="D15">
-        <v>10.09528458251781</v>
+        <v>13.90258010740164</v>
       </c>
       <c r="E15">
-        <v>8.611876879602745</v>
+        <v>14.2768759069489</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.119241694294072</v>
+        <v>3.725738635666002</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.13377107006319</v>
+        <v>8.659395633862161</v>
       </c>
       <c r="K15">
-        <v>13.28112154437876</v>
+        <v>13.49672696436717</v>
       </c>
       <c r="L15">
-        <v>7.501195214881906</v>
+        <v>12.08616711848236</v>
       </c>
       <c r="M15">
-        <v>12.46272078089045</v>
+        <v>17.8134180963463</v>
       </c>
       <c r="N15">
-        <v>14.4984531269885</v>
+        <v>23.43836859855036</v>
       </c>
       <c r="O15">
-        <v>22.92056230637233</v>
+        <v>34.42834301126899</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.18607249137215</v>
+        <v>17.81889793079319</v>
       </c>
       <c r="C16">
-        <v>6.862572259810351</v>
+        <v>7.583591890768486</v>
       </c>
       <c r="D16">
-        <v>9.947548622717068</v>
+        <v>13.89435468776773</v>
       </c>
       <c r="E16">
-        <v>8.599650855011259</v>
+        <v>14.28981784041137</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.123018115034026</v>
+        <v>3.727042528886284</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.143191536168577</v>
+        <v>8.662589321649557</v>
       </c>
       <c r="K16">
-        <v>12.8508148513696</v>
+        <v>13.4207918922179</v>
       </c>
       <c r="L16">
-        <v>7.443310236421809</v>
+        <v>12.09003009610658</v>
       </c>
       <c r="M16">
-        <v>12.2585977388152</v>
+        <v>17.79797064118496</v>
       </c>
       <c r="N16">
-        <v>14.64649657894379</v>
+        <v>23.47823553024841</v>
       </c>
       <c r="O16">
-        <v>22.83509169267084</v>
+        <v>34.46213391818622</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.87595854011974</v>
+        <v>17.75445909100972</v>
       </c>
       <c r="C17">
-        <v>6.817188689434708</v>
+        <v>7.56883230270221</v>
       </c>
       <c r="D17">
-        <v>9.857450211032715</v>
+        <v>13.8899043448403</v>
       </c>
       <c r="E17">
-        <v>8.593133337164412</v>
+        <v>14.29815706249379</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.125357610662337</v>
+        <v>3.727860461515425</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.149049077088037</v>
+        <v>8.664593957745568</v>
       </c>
       <c r="K17">
-        <v>12.58053710255723</v>
+        <v>13.37460796217795</v>
       </c>
       <c r="L17">
-        <v>7.408454356457956</v>
+        <v>12.09276440882704</v>
       </c>
       <c r="M17">
-        <v>12.13323986533543</v>
+        <v>17.78913632751701</v>
       </c>
       <c r="N17">
-        <v>14.73800108721862</v>
+        <v>23.5031798485423</v>
       </c>
       <c r="O17">
-        <v>22.78721097153161</v>
+        <v>34.48431971162798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.69575445919551</v>
+        <v>17.71761244297026</v>
       </c>
       <c r="C18">
-        <v>6.790968354140552</v>
+        <v>7.560294828406586</v>
       </c>
       <c r="D18">
-        <v>9.805835623878282</v>
+        <v>13.88756425254753</v>
       </c>
       <c r="E18">
-        <v>8.589740762960579</v>
+        <v>14.30310063535364</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.126711862616606</v>
+        <v>3.728337559140677</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.152447271453055</v>
+        <v>8.665763695918475</v>
       </c>
       <c r="K18">
-        <v>12.42275100573841</v>
+        <v>13.34819850927591</v>
       </c>
       <c r="L18">
-        <v>7.388647985432654</v>
+        <v>12.09447130462645</v>
       </c>
       <c r="M18">
-        <v>12.06110714687032</v>
+        <v>17.78429226250055</v>
       </c>
       <c r="N18">
-        <v>14.79089065218098</v>
+        <v>23.51770657478886</v>
       </c>
       <c r="O18">
-        <v>22.76130942495251</v>
+        <v>34.49761539166317</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.63442791137085</v>
+        <v>17.70517505982917</v>
       </c>
       <c r="C19">
-        <v>6.782070687262689</v>
+        <v>7.55739597353324</v>
       </c>
       <c r="D19">
-        <v>9.788396624062914</v>
+        <v>13.88680972395168</v>
       </c>
       <c r="E19">
-        <v>8.588652786752947</v>
+        <v>14.30479971918017</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.12717189666396</v>
+        <v>3.72850023891493</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.153602864874853</v>
+        <v>8.666162625014707</v>
       </c>
       <c r="K19">
-        <v>12.36892587313092</v>
+        <v>13.33928392590411</v>
       </c>
       <c r="L19">
-        <v>7.38198353400837</v>
+        <v>12.09507229984546</v>
       </c>
       <c r="M19">
-        <v>12.03668097315476</v>
+        <v>17.78269299471398</v>
       </c>
       <c r="N19">
-        <v>14.80884321853804</v>
+        <v>23.5226559228393</v>
       </c>
       <c r="O19">
-        <v>22.75281764762874</v>
+        <v>34.50220895241866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.90916118346625</v>
+        <v>17.7612965112546</v>
       </c>
       <c r="C20">
-        <v>6.822031986104957</v>
+        <v>7.570408482898304</v>
       </c>
       <c r="D20">
-        <v>9.867020123076628</v>
+        <v>13.89035537652669</v>
       </c>
       <c r="E20">
-        <v>8.593790167060543</v>
+        <v>14.29725412017468</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.125107679400137</v>
+        <v>3.72777270388296</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.148422527326074</v>
+        <v>8.664378830694726</v>
       </c>
       <c r="K20">
-        <v>12.60954939346939</v>
+        <v>13.37950851494351</v>
       </c>
       <c r="L20">
-        <v>7.41213982536882</v>
+        <v>12.09245945355128</v>
       </c>
       <c r="M20">
-        <v>12.14658799885887</v>
+        <v>17.79005223252825</v>
       </c>
       <c r="N20">
-        <v>14.72823366901716</v>
+        <v>23.50050592254844</v>
       </c>
       <c r="O20">
-        <v>22.79213762252992</v>
+        <v>34.48190262231593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81013787932759</v>
+        <v>17.95237274089072</v>
       </c>
       <c r="C21">
-        <v>6.954888549368348</v>
+        <v>7.613549240028224</v>
       </c>
       <c r="D21">
-        <v>10.13358246978554</v>
+        <v>13.90488730593504</v>
       </c>
       <c r="E21">
-        <v>8.615341351110244</v>
+        <v>14.27365801355096</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.118273520775297</v>
+        <v>3.725407559108616</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.131362892548545</v>
+        <v>8.658585097047764</v>
       </c>
       <c r="K21">
-        <v>13.39028329315377</v>
+        <v>13.51644943563769</v>
       </c>
       <c r="L21">
-        <v>7.516341387652177</v>
+        <v>12.08528226389627</v>
       </c>
       <c r="M21">
-        <v>12.51536438900259</v>
+        <v>17.81760387143082</v>
       </c>
       <c r="N21">
-        <v>14.460437116704</v>
+        <v>23.42822609178267</v>
       </c>
       <c r="O21">
-        <v>22.94406511962605</v>
+        <v>34.42006915086932</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38217352121466</v>
+        <v>18.07895473842606</v>
       </c>
       <c r="C22">
-        <v>7.040645758660874</v>
+        <v>7.641302726027376</v>
       </c>
       <c r="D22">
-        <v>10.30940101419422</v>
+        <v>13.91632480065089</v>
       </c>
       <c r="E22">
-        <v>8.632705013698907</v>
+        <v>14.25954282205873</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.113878190032803</v>
+        <v>3.723920626836296</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.120466416321112</v>
+        <v>8.654946730596578</v>
       </c>
       <c r="K22">
-        <v>13.88011360469091</v>
+        <v>13.60716451070469</v>
       </c>
       <c r="L22">
-        <v>7.586570669077611</v>
+        <v>12.08178134197856</v>
       </c>
       <c r="M22">
-        <v>12.75571444829699</v>
+        <v>17.8376967781882</v>
       </c>
       <c r="N22">
-        <v>14.28756925772032</v>
+        <v>23.38257724884481</v>
       </c>
       <c r="O22">
-        <v>23.05868794477667</v>
+        <v>34.3844241068458</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.07842339720653</v>
+        <v>18.01125087665827</v>
       </c>
       <c r="C23">
-        <v>6.994974884071087</v>
+        <v>7.626531179086794</v>
       </c>
       <c r="D23">
-        <v>10.2154277496482</v>
+        <v>13.9100436849854</v>
       </c>
       <c r="E23">
-        <v>8.623132445000033</v>
+        <v>14.26695701418116</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.116217834685458</v>
+        <v>3.724708864371489</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.126259221387951</v>
+        <v>8.656875073778409</v>
       </c>
       <c r="K23">
-        <v>13.62053490254682</v>
+        <v>13.55864457124691</v>
       </c>
       <c r="L23">
-        <v>7.548894536982815</v>
+        <v>12.08354124341047</v>
       </c>
       <c r="M23">
-        <v>12.62751411061664</v>
+        <v>17.82678321865708</v>
       </c>
       <c r="N23">
-        <v>14.37964251585457</v>
+        <v>23.40679574995039</v>
       </c>
       <c r="O23">
-        <v>22.99607307585061</v>
+        <v>34.40301228452126</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.89415622883647</v>
+        <v>17.75820468772599</v>
       </c>
       <c r="C24">
-        <v>6.819842732221026</v>
+        <v>7.569696053643519</v>
       </c>
       <c r="D24">
-        <v>9.862692989338564</v>
+        <v>13.89015078443405</v>
       </c>
       <c r="E24">
-        <v>8.593492111467782</v>
+        <v>14.29766187548644</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.125220644466469</v>
+        <v>3.727812357744866</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.148705695044469</v>
+        <v>8.664476035906429</v>
       </c>
       <c r="K24">
-        <v>12.59644041513416</v>
+        <v>13.37729253001482</v>
       </c>
       <c r="L24">
-        <v>7.410472899656765</v>
+        <v>12.09259690356746</v>
       </c>
       <c r="M24">
-        <v>12.14055349874069</v>
+        <v>17.78963741989874</v>
       </c>
       <c r="N24">
-        <v>14.73264863751357</v>
+        <v>23.50171422529997</v>
       </c>
       <c r="O24">
-        <v>22.78990522809955</v>
+        <v>34.48299370392588</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54708815840361</v>
+        <v>17.49367451876977</v>
       </c>
       <c r="C25">
-        <v>6.626494404338853</v>
+        <v>7.50655673190781</v>
       </c>
       <c r="D25">
-        <v>9.4903170706451</v>
+        <v>13.87709677653955</v>
       </c>
       <c r="E25">
-        <v>8.575073656875366</v>
+        <v>14.33640687580432</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.135264745076817</v>
+        <v>3.731414221187058</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.174033561580145</v>
+        <v>8.673314793230842</v>
       </c>
       <c r="K25">
-        <v>11.40654511847753</v>
+        <v>13.18766457163126</v>
       </c>
       <c r="L25">
-        <v>7.270421113238401</v>
+        <v>12.10749788894623</v>
       </c>
       <c r="M25">
-        <v>11.61442461378454</v>
+        <v>17.75865091435566</v>
       </c>
       <c r="N25">
-        <v>15.12339315961884</v>
+        <v>23.61096334040537</v>
       </c>
       <c r="O25">
-        <v>22.62970502851796</v>
+        <v>34.58971778258715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30729222605736</v>
+        <v>14.49915591064682</v>
       </c>
       <c r="C2">
-        <v>7.458549524718691</v>
+        <v>6.48052072239778</v>
       </c>
       <c r="D2">
-        <v>13.87477634477309</v>
+        <v>9.224487125725114</v>
       </c>
       <c r="E2">
-        <v>14.36979348599436</v>
+        <v>8.572588249665248</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.734287269652385</v>
+        <v>2.14297628081673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.680378389478513</v>
+        <v>5.19367734799444</v>
       </c>
       <c r="K2">
-        <v>13.05398466323908</v>
+        <v>10.63226132564346</v>
       </c>
       <c r="L2">
-        <v>12.12290868794631</v>
+        <v>7.175360843130678</v>
       </c>
       <c r="M2">
-        <v>17.74375959756803</v>
+        <v>11.22868676657944</v>
       </c>
       <c r="N2">
-        <v>23.69736278369955</v>
+        <v>15.42050572690921</v>
       </c>
       <c r="O2">
-        <v>34.68587127431238</v>
+        <v>22.56113659690132</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.18677291564855</v>
+        <v>13.75682843025937</v>
       </c>
       <c r="C3">
-        <v>7.425098116930809</v>
+        <v>6.379477583620302</v>
       </c>
       <c r="D3">
-        <v>13.87777823367869</v>
+        <v>9.050277441783866</v>
       </c>
       <c r="E3">
-        <v>14.39546135602054</v>
+        <v>8.577524406774616</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.736373415549733</v>
+        <v>2.148413347706015</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.68551476181595</v>
+        <v>5.207627976432406</v>
       </c>
       <c r="K3">
-        <v>12.96748133574138</v>
+        <v>10.0826117310188</v>
       </c>
       <c r="L3">
-        <v>12.13613344316188</v>
+        <v>7.116001905249707</v>
       </c>
       <c r="M3">
-        <v>17.73866160537809</v>
+        <v>10.96965873388972</v>
       </c>
       <c r="N3">
-        <v>23.7596625166325</v>
+        <v>15.62813054680443</v>
       </c>
       <c r="O3">
-        <v>34.76198623989879</v>
+        <v>22.54339269126923</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.11581112039163</v>
+        <v>13.28647789921477</v>
       </c>
       <c r="C4">
-        <v>7.404117302737166</v>
+        <v>6.316448524475208</v>
       </c>
       <c r="D4">
-        <v>13.88188508070126</v>
+        <v>8.946494194670189</v>
       </c>
       <c r="E4">
-        <v>14.41272521874182</v>
+        <v>8.583725832775063</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.737723296768225</v>
+        <v>2.151859981517072</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.688841695596224</v>
+        <v>5.216513816227112</v>
       </c>
       <c r="K4">
-        <v>12.91651078041265</v>
+        <v>9.733752935800077</v>
       </c>
       <c r="L4">
-        <v>12.14562875516223</v>
+        <v>7.082060431350695</v>
       </c>
       <c r="M4">
-        <v>17.73801024168178</v>
+        <v>10.81228456616046</v>
       </c>
       <c r="N4">
-        <v>23.79977174909328</v>
+        <v>15.75883124975991</v>
       </c>
       <c r="O4">
-        <v>34.81411826974769</v>
+        <v>22.5459709607139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.0876838870935</v>
+        <v>13.09138269009585</v>
       </c>
       <c r="C5">
-        <v>7.395458129557345</v>
+        <v>6.290524621743006</v>
       </c>
       <c r="D5">
-        <v>13.8841289223226</v>
+        <v>8.905039233464695</v>
       </c>
       <c r="E5">
-        <v>14.42013901172524</v>
+        <v>8.587036305407572</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.738290784282964</v>
+        <v>2.153292322233725</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.690241118769206</v>
+        <v>5.220216122609351</v>
       </c>
       <c r="K5">
-        <v>12.89629699351698</v>
+        <v>9.588899698809444</v>
       </c>
       <c r="L5">
-        <v>12.14984455251038</v>
+        <v>7.06885960730658</v>
       </c>
       <c r="M5">
-        <v>17.7383704322487</v>
+        <v>10.74865042317691</v>
       </c>
       <c r="N5">
-        <v>23.81658477555652</v>
+        <v>15.81291969318568</v>
       </c>
       <c r="O5">
-        <v>34.83671896138645</v>
+        <v>22.55030626468486</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.08306185973282</v>
+        <v>13.0587882630707</v>
       </c>
       <c r="C6">
-        <v>7.394013727386425</v>
+        <v>6.286205827181353</v>
       </c>
       <c r="D6">
-        <v>13.8845359800412</v>
+        <v>8.898207314852515</v>
       </c>
       <c r="E6">
-        <v>14.42139294957485</v>
+        <v>8.587632911946073</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.738386067673353</v>
+        <v>2.153531857699397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.690476133142814</v>
+        <v>5.220835817408376</v>
       </c>
       <c r="K6">
-        <v>12.89297467620984</v>
+        <v>9.564689978247767</v>
       </c>
       <c r="L6">
-        <v>12.15056551870108</v>
+        <v>7.066705708329422</v>
       </c>
       <c r="M6">
-        <v>17.73846809084901</v>
+        <v>10.73811632486751</v>
       </c>
       <c r="N6">
-        <v>23.81940487989565</v>
+        <v>15.82195148293449</v>
       </c>
       <c r="O6">
-        <v>34.84055369426893</v>
+        <v>22.55122149904048</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.115428552911</v>
+        <v>13.28386029457247</v>
       </c>
       <c r="C7">
-        <v>7.404000962488285</v>
+        <v>6.316099860647714</v>
       </c>
       <c r="D7">
-        <v>13.88191303169624</v>
+        <v>8.945931679126639</v>
       </c>
       <c r="E7">
-        <v>14.41282367001332</v>
+        <v>8.583767325617295</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.737730879578614</v>
+        <v>2.151879185203567</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.688860391721622</v>
+        <v>5.216563416826281</v>
       </c>
       <c r="K7">
-        <v>12.91623589090817</v>
+        <v>9.731810041977852</v>
       </c>
       <c r="L7">
-        <v>12.1456842076803</v>
+        <v>7.081879846936537</v>
       </c>
       <c r="M7">
-        <v>17.73801256332384</v>
+        <v>10.81142425818265</v>
       </c>
       <c r="N7">
-        <v>23.79999659812694</v>
+        <v>15.75955733460315</v>
       </c>
       <c r="O7">
-        <v>34.81441757930079</v>
+        <v>22.54601626533151</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26512298280721</v>
+        <v>14.24635273188978</v>
       </c>
       <c r="C8">
-        <v>7.447108132235031</v>
+        <v>6.44589158070738</v>
       </c>
       <c r="D8">
-        <v>13.87534225531797</v>
+        <v>9.163781983114607</v>
       </c>
       <c r="E8">
-        <v>14.37833198883945</v>
+        <v>8.573623778199762</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.734992289020981</v>
+        <v>2.144828875973031</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.68211354123695</v>
+        <v>5.198421553902264</v>
       </c>
       <c r="K8">
-        <v>13.02372480395378</v>
+        <v>10.44519452255136</v>
       </c>
       <c r="L8">
-        <v>12.1271834940252</v>
+        <v>7.154374590463855</v>
       </c>
       <c r="M8">
-        <v>17.74148877662572</v>
+        <v>11.13907305215259</v>
       </c>
       <c r="N8">
-        <v>23.71845907509869</v>
+        <v>15.4914375940764</v>
       </c>
       <c r="O8">
-        <v>34.71099515383916</v>
+        <v>22.55216009058949</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.58155476580446</v>
+        <v>16.00987059752583</v>
       </c>
       <c r="C9">
-        <v>7.528065133270803</v>
+        <v>6.692201288690802</v>
       </c>
       <c r="D9">
-        <v>13.88036536210647</v>
+        <v>9.614551733850266</v>
       </c>
       <c r="E9">
-        <v>14.32260219701752</v>
+        <v>8.579518816230502</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.730166752569117</v>
+        <v>2.131834170026708</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.670251482943234</v>
+        <v>5.165349592092954</v>
       </c>
       <c r="K9">
-        <v>13.25067045923755</v>
+        <v>11.81679854594133</v>
       </c>
       <c r="L9">
-        <v>12.10179047319698</v>
+        <v>7.316351950180201</v>
       </c>
       <c r="M9">
-        <v>17.76786514110492</v>
+        <v>11.79156677593498</v>
       </c>
       <c r="N9">
-        <v>23.57324054912487</v>
+        <v>14.99036310779037</v>
       </c>
       <c r="O9">
-        <v>34.55103655370038</v>
+        <v>22.67572175233538</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.8262794622818</v>
+        <v>17.22120818496349</v>
       </c>
       <c r="C10">
-        <v>7.585269494551017</v>
+        <v>6.867734878308227</v>
       </c>
       <c r="D10">
-        <v>13.89489221211767</v>
+        <v>9.957856746823671</v>
       </c>
       <c r="E10">
-        <v>14.28888619440412</v>
+        <v>8.600443169268351</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.72695009625276</v>
+        <v>2.122752313645062</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.662362842355051</v>
+        <v>5.1425270715467</v>
       </c>
       <c r="K10">
-        <v>13.42608217585228</v>
+        <v>12.88134083479183</v>
       </c>
       <c r="L10">
-        <v>12.08973625825656</v>
+        <v>7.447320212785341</v>
       </c>
       <c r="M10">
-        <v>17.79901075355746</v>
+        <v>12.27289642426248</v>
       </c>
       <c r="N10">
-        <v>23.47541349556935</v>
+        <v>14.63608981426623</v>
       </c>
       <c r="O10">
-        <v>34.45967486928514</v>
+        <v>22.84077972639759</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.93988843721434</v>
+        <v>17.75272910349726</v>
       </c>
       <c r="C11">
-        <v>7.610779312642106</v>
+        <v>6.946341703190696</v>
       </c>
       <c r="D11">
-        <v>13.90383232548671</v>
+        <v>10.11621240776159</v>
       </c>
       <c r="E11">
-        <v>14.27511082100914</v>
+        <v>8.613755460161931</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.72555738319601</v>
+        <v>2.118712123362504</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.658951874905609</v>
+        <v>5.132453491980614</v>
       </c>
       <c r="K11">
-        <v>13.50750248109059</v>
+        <v>13.34088836147433</v>
       </c>
       <c r="L11">
-        <v>12.08567790637643</v>
+        <v>7.509464870361307</v>
       </c>
       <c r="M11">
-        <v>17.81569654569219</v>
+        <v>12.49150114710683</v>
       </c>
       <c r="N11">
-        <v>23.43281692365373</v>
+        <v>14.47766210923668</v>
       </c>
       <c r="O11">
-        <v>34.42379808211001</v>
+        <v>22.93333855578756</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.98320449624672</v>
+        <v>17.95112469150009</v>
       </c>
       <c r="C12">
-        <v>7.620363730786968</v>
+        <v>6.975924669653382</v>
       </c>
       <c r="D12">
-        <v>13.90755079786095</v>
+        <v>10.17645607673226</v>
       </c>
       <c r="E12">
-        <v>14.27011852776014</v>
+        <v>8.619357760741433</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.725040089378485</v>
+        <v>2.117194476618257</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.657685645336318</v>
+        <v>5.128682321419239</v>
       </c>
       <c r="K12">
-        <v>13.53854511593351</v>
+        <v>13.5114010072561</v>
       </c>
       <c r="L12">
-        <v>12.08434528484931</v>
+        <v>7.533362997913258</v>
       </c>
       <c r="M12">
-        <v>17.82237335541522</v>
+        <v>12.57417160765408</v>
       </c>
       <c r="N12">
-        <v>23.41695943207879</v>
+        <v>14.41804011625058</v>
       </c>
       <c r="O12">
-        <v>34.41103009517261</v>
+        <v>22.97100990341931</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.97386303213898</v>
+        <v>17.90852565764702</v>
       </c>
       <c r="C13">
-        <v>7.618302946643772</v>
+        <v>6.969561682947102</v>
       </c>
       <c r="D13">
-        <v>13.90673518438081</v>
+        <v>10.16346971614876</v>
       </c>
       <c r="E13">
-        <v>14.27118374678597</v>
+        <v>8.618125991885332</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.725151049610312</v>
+        <v>2.117520796340673</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.657957221290538</v>
+        <v>5.129492591238921</v>
       </c>
       <c r="K13">
-        <v>13.53185053606183</v>
+        <v>13.47483331729254</v>
       </c>
       <c r="L13">
-        <v>12.08462321981757</v>
+        <v>7.52819992159723</v>
       </c>
       <c r="M13">
-        <v>17.82091951344733</v>
+        <v>12.5563728353651</v>
       </c>
       <c r="N13">
-        <v>23.42036250635288</v>
+        <v>14.43086462796152</v>
       </c>
       <c r="O13">
-        <v>34.41374353385309</v>
+        <v>22.96277839187613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.94344635978083</v>
+        <v>17.76910928226763</v>
       </c>
       <c r="C14">
-        <v>7.61156935421298</v>
+        <v>6.948779216904175</v>
       </c>
       <c r="D14">
-        <v>13.90413158545828</v>
+        <v>10.12116332059214</v>
       </c>
       <c r="E14">
-        <v>14.27469561281945</v>
+        <v>8.614205026241208</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.72551462306029</v>
+        <v>2.11858702435879</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.658847192418357</v>
+        <v>5.132142369350589</v>
       </c>
       <c r="K14">
-        <v>13.51005229116482</v>
+        <v>13.35498657235841</v>
       </c>
       <c r="L14">
-        <v>12.08556418301466</v>
+        <v>7.51142368413881</v>
       </c>
       <c r="M14">
-        <v>17.81623869307485</v>
+        <v>12.49830502672929</v>
       </c>
       <c r="N14">
-        <v>23.43150685506631</v>
+        <v>14.47274966140316</v>
       </c>
       <c r="O14">
-        <v>34.42273126088586</v>
+        <v>22.93638464307527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.9248526641826</v>
+        <v>17.68333590700535</v>
       </c>
       <c r="C15">
-        <v>7.60743493430448</v>
+        <v>6.936025308050657</v>
       </c>
       <c r="D15">
-        <v>13.90258010740164</v>
+        <v>10.09528458251782</v>
       </c>
       <c r="E15">
-        <v>14.2768759069489</v>
+        <v>8.611876879602738</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.725738635666002</v>
+        <v>2.119241694294338</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.659395633862161</v>
+        <v>5.133771070063188</v>
       </c>
       <c r="K15">
-        <v>13.49672696436717</v>
+        <v>13.28112154437876</v>
       </c>
       <c r="L15">
-        <v>12.08616711848236</v>
+        <v>7.501195214881926</v>
       </c>
       <c r="M15">
-        <v>17.8134180963463</v>
+        <v>12.46272078089044</v>
       </c>
       <c r="N15">
-        <v>23.43836859855036</v>
+        <v>14.49845312698846</v>
       </c>
       <c r="O15">
-        <v>34.42834301126899</v>
+        <v>22.92056230637226</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.81889793079319</v>
+        <v>17.18607249137215</v>
       </c>
       <c r="C16">
-        <v>7.583591890768486</v>
+        <v>6.86257225981021</v>
       </c>
       <c r="D16">
-        <v>13.89435468776773</v>
+        <v>9.947548622716965</v>
       </c>
       <c r="E16">
-        <v>14.28981784041137</v>
+        <v>8.599650855011205</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.727042528886284</v>
+        <v>2.123018115033891</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.662589321649557</v>
+        <v>5.143191536168646</v>
       </c>
       <c r="K16">
-        <v>13.4207918922179</v>
+        <v>12.85081485136956</v>
       </c>
       <c r="L16">
-        <v>12.09003009610658</v>
+        <v>7.443310236421802</v>
       </c>
       <c r="M16">
-        <v>17.79797064118496</v>
+        <v>12.25859773881522</v>
       </c>
       <c r="N16">
-        <v>23.47823553024841</v>
+        <v>14.64649657894385</v>
       </c>
       <c r="O16">
-        <v>34.46213391818622</v>
+        <v>22.83509169267096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.75445909100972</v>
+        <v>16.87595854011969</v>
       </c>
       <c r="C17">
-        <v>7.56883230270221</v>
+        <v>6.817188689434338</v>
       </c>
       <c r="D17">
-        <v>13.8899043448403</v>
+        <v>9.857450211032516</v>
       </c>
       <c r="E17">
-        <v>14.29815706249379</v>
+        <v>8.59313333716436</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.727860461515425</v>
+        <v>2.125357610662336</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.664593957745568</v>
+        <v>5.149049077088138</v>
       </c>
       <c r="K17">
-        <v>13.37460796217795</v>
+        <v>12.58053710255727</v>
       </c>
       <c r="L17">
-        <v>12.09276440882704</v>
+        <v>7.408454356458027</v>
       </c>
       <c r="M17">
-        <v>17.78913632751701</v>
+        <v>12.13323986533537</v>
       </c>
       <c r="N17">
-        <v>23.5031798485423</v>
+        <v>14.73800108721836</v>
       </c>
       <c r="O17">
-        <v>34.48431971162798</v>
+        <v>22.78721097153126</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.71761244297026</v>
+        <v>16.69575445919551</v>
       </c>
       <c r="C18">
-        <v>7.560294828406586</v>
+        <v>6.790968354140789</v>
       </c>
       <c r="D18">
-        <v>13.88756425254753</v>
+        <v>9.805835623878385</v>
       </c>
       <c r="E18">
-        <v>14.30310063535364</v>
+        <v>8.589740762960583</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.728337559140677</v>
+        <v>2.126711862616872</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.665763695918475</v>
+        <v>5.152447271452989</v>
       </c>
       <c r="K18">
-        <v>13.34819850927591</v>
+        <v>12.4227510057385</v>
       </c>
       <c r="L18">
-        <v>12.09447130462645</v>
+        <v>7.388647985432588</v>
       </c>
       <c r="M18">
-        <v>17.78429226250055</v>
+        <v>12.06110714687027</v>
       </c>
       <c r="N18">
-        <v>23.51770657478886</v>
+        <v>14.79089065218091</v>
       </c>
       <c r="O18">
-        <v>34.49761539166317</v>
+        <v>22.7613094249523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70517505982917</v>
+        <v>16.63442791137085</v>
       </c>
       <c r="C19">
-        <v>7.55739597353324</v>
+        <v>6.782070687262684</v>
       </c>
       <c r="D19">
-        <v>13.88680972395168</v>
+        <v>9.788396624063003</v>
       </c>
       <c r="E19">
-        <v>14.30479971918017</v>
+        <v>8.588652786752901</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.72850023891493</v>
+        <v>2.127171896663824</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.666162625014707</v>
+        <v>5.153602864874752</v>
       </c>
       <c r="K19">
-        <v>13.33928392590411</v>
+        <v>12.36892587313092</v>
       </c>
       <c r="L19">
-        <v>12.09507229984546</v>
+        <v>7.381983534008309</v>
       </c>
       <c r="M19">
-        <v>17.78269299471398</v>
+        <v>12.03668097315474</v>
       </c>
       <c r="N19">
-        <v>23.5226559228393</v>
+        <v>14.80884321853801</v>
       </c>
       <c r="O19">
-        <v>34.50220895241866</v>
+        <v>22.75281764762873</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.7612965112546</v>
+        <v>16.90916118346624</v>
       </c>
       <c r="C20">
-        <v>7.570408482898304</v>
+        <v>6.822031986104836</v>
       </c>
       <c r="D20">
-        <v>13.89035537652669</v>
+        <v>9.867020123076662</v>
       </c>
       <c r="E20">
-        <v>14.29725412017468</v>
+        <v>8.593790167060543</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.72777270388296</v>
+        <v>2.125107679400138</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.664378830694726</v>
+        <v>5.148422527326042</v>
       </c>
       <c r="K20">
-        <v>13.37950851494351</v>
+        <v>12.60954939346939</v>
       </c>
       <c r="L20">
-        <v>12.09245945355128</v>
+        <v>7.412139825368823</v>
       </c>
       <c r="M20">
-        <v>17.79005223252825</v>
+        <v>12.14658799885886</v>
       </c>
       <c r="N20">
-        <v>23.50050592254844</v>
+        <v>14.72823366901722</v>
       </c>
       <c r="O20">
-        <v>34.48190262231593</v>
+        <v>22.79213762252997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.95237274089072</v>
+        <v>17.81013787932758</v>
       </c>
       <c r="C21">
-        <v>7.613549240028224</v>
+        <v>6.954888549368462</v>
       </c>
       <c r="D21">
-        <v>13.90488730593504</v>
+        <v>10.13358246978555</v>
       </c>
       <c r="E21">
-        <v>14.27365801355096</v>
+        <v>8.615341351110239</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.725407559108616</v>
+        <v>2.118273520775164</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.658585097047764</v>
+        <v>5.131362892548544</v>
       </c>
       <c r="K21">
-        <v>13.51644943563769</v>
+        <v>13.39028329315377</v>
       </c>
       <c r="L21">
-        <v>12.08528226389627</v>
+        <v>7.516341387652171</v>
       </c>
       <c r="M21">
-        <v>17.81760387143082</v>
+        <v>12.51536438900259</v>
       </c>
       <c r="N21">
-        <v>23.42822609178267</v>
+        <v>14.4604371167039</v>
       </c>
       <c r="O21">
-        <v>34.42006915086932</v>
+        <v>22.94406511962595</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.07895473842606</v>
+        <v>18.38217352121467</v>
       </c>
       <c r="C22">
-        <v>7.641302726027376</v>
+        <v>7.040645758660865</v>
       </c>
       <c r="D22">
-        <v>13.91632480065089</v>
+        <v>10.30940101419423</v>
       </c>
       <c r="E22">
-        <v>14.25954282205873</v>
+        <v>8.632705013698907</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.723920626836296</v>
+        <v>2.113878190032938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.654946730596578</v>
+        <v>5.120466416321114</v>
       </c>
       <c r="K22">
-        <v>13.60716451070469</v>
+        <v>13.88011360469091</v>
       </c>
       <c r="L22">
-        <v>12.08178134197856</v>
+        <v>7.586570669077594</v>
       </c>
       <c r="M22">
-        <v>17.8376967781882</v>
+        <v>12.75571444829698</v>
       </c>
       <c r="N22">
-        <v>23.38257724884481</v>
+        <v>14.28756925772038</v>
       </c>
       <c r="O22">
-        <v>34.3844241068458</v>
+        <v>23.05868794477672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.01125087665827</v>
+        <v>18.07842339720652</v>
       </c>
       <c r="C23">
-        <v>7.626531179086794</v>
+        <v>6.994974884071087</v>
       </c>
       <c r="D23">
-        <v>13.9100436849854</v>
+        <v>10.21542774964816</v>
       </c>
       <c r="E23">
-        <v>14.26695701418116</v>
+        <v>8.623132445000039</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.724708864371489</v>
+        <v>2.116217834685457</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.656875073778409</v>
+        <v>5.126259221387919</v>
       </c>
       <c r="K23">
-        <v>13.55864457124691</v>
+        <v>13.62053490254687</v>
       </c>
       <c r="L23">
-        <v>12.08354124341047</v>
+        <v>7.548894536982751</v>
       </c>
       <c r="M23">
-        <v>17.82678321865708</v>
+        <v>12.6275141106166</v>
       </c>
       <c r="N23">
-        <v>23.40679574995039</v>
+        <v>14.37964251585447</v>
       </c>
       <c r="O23">
-        <v>34.40301228452126</v>
+        <v>22.9960730758504</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.75820468772599</v>
+        <v>16.8941562288365</v>
       </c>
       <c r="C24">
-        <v>7.569696053643519</v>
+        <v>6.81984273222115</v>
       </c>
       <c r="D24">
-        <v>13.89015078443405</v>
+        <v>9.862692989338568</v>
       </c>
       <c r="E24">
-        <v>14.29766187548644</v>
+        <v>8.593492111467784</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.727812357744866</v>
+        <v>2.125220644466469</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.664476035906429</v>
+        <v>5.148705695044436</v>
       </c>
       <c r="K24">
-        <v>13.37729253001482</v>
+        <v>12.59644041513411</v>
       </c>
       <c r="L24">
-        <v>12.09259690356746</v>
+        <v>7.410472899656738</v>
       </c>
       <c r="M24">
-        <v>17.78963741989874</v>
+        <v>12.14055349874072</v>
       </c>
       <c r="N24">
-        <v>23.50171422529997</v>
+        <v>14.73264863751358</v>
       </c>
       <c r="O24">
-        <v>34.48299370392588</v>
+        <v>22.78990522809967</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.49367451876977</v>
+        <v>15.54708815840361</v>
       </c>
       <c r="C25">
-        <v>7.50655673190781</v>
+        <v>6.626494404338853</v>
       </c>
       <c r="D25">
-        <v>13.87709677653955</v>
+        <v>9.490317070645068</v>
       </c>
       <c r="E25">
-        <v>14.33640687580432</v>
+        <v>8.575073656875308</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.731414221187058</v>
+        <v>2.135264745076817</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.673314793230842</v>
+        <v>5.174033561580178</v>
       </c>
       <c r="K25">
-        <v>13.18766457163126</v>
+        <v>11.40654511847754</v>
       </c>
       <c r="L25">
-        <v>12.10749788894623</v>
+        <v>7.270421113238419</v>
       </c>
       <c r="M25">
-        <v>17.75865091435566</v>
+        <v>11.61442461378451</v>
       </c>
       <c r="N25">
-        <v>23.61096334040537</v>
+        <v>15.12339315961874</v>
       </c>
       <c r="O25">
-        <v>34.58971778258715</v>
+        <v>22.62970502851786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.49915591064682</v>
+        <v>20.98029573850631</v>
       </c>
       <c r="C2">
-        <v>6.48052072239778</v>
+        <v>13.19174816731781</v>
       </c>
       <c r="D2">
-        <v>9.224487125725114</v>
+        <v>8.662970543792879</v>
       </c>
       <c r="E2">
-        <v>8.572588249665248</v>
+        <v>8.487539591699882</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.14297628081673</v>
+        <v>25.06514266896072</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.928709265358379</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.365054895250209</v>
       </c>
       <c r="J2">
-        <v>5.19367734799444</v>
+        <v>9.743029767009762</v>
       </c>
       <c r="K2">
-        <v>10.63226132564346</v>
+        <v>15.40810664579742</v>
       </c>
       <c r="L2">
-        <v>7.175360843130678</v>
+        <v>5.688102952942526</v>
       </c>
       <c r="M2">
-        <v>11.22868676657944</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.42050572690921</v>
+        <v>7.567850741781899</v>
       </c>
       <c r="O2">
-        <v>22.56113659690132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.39966708974395</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.13953259369222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.75682843025937</v>
+        <v>19.59733465863812</v>
       </c>
       <c r="C3">
-        <v>6.379477583620302</v>
+        <v>12.58312352173565</v>
       </c>
       <c r="D3">
-        <v>9.050277441783866</v>
+        <v>8.528805758863763</v>
       </c>
       <c r="E3">
-        <v>8.577524406774616</v>
+        <v>8.463420188787559</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.148413347706015</v>
+        <v>24.77499661475575</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.138659264587104</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.526441627368204</v>
       </c>
       <c r="J3">
-        <v>5.207627976432406</v>
+        <v>9.780436120504058</v>
       </c>
       <c r="K3">
-        <v>10.0826117310188</v>
+        <v>15.59894562722288</v>
       </c>
       <c r="L3">
-        <v>7.116001905249707</v>
+        <v>5.615335582215966</v>
       </c>
       <c r="M3">
-        <v>10.96965873388972</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.62813054680443</v>
+        <v>7.375390694399182</v>
       </c>
       <c r="O3">
-        <v>22.54339269126923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.73411332686921</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.12425873555394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.28647789921477</v>
+        <v>18.69567497306858</v>
       </c>
       <c r="C4">
-        <v>6.316448524475208</v>
+        <v>12.19627828223194</v>
       </c>
       <c r="D4">
-        <v>8.946494194670189</v>
+        <v>8.447609010166991</v>
       </c>
       <c r="E4">
-        <v>8.583725832775063</v>
+        <v>8.448086674687852</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.151859981517072</v>
+        <v>24.609384816661</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.27213681100467</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.629707519183076</v>
       </c>
       <c r="J4">
-        <v>5.216513816227112</v>
+        <v>9.806881557596988</v>
       </c>
       <c r="K4">
-        <v>9.733752935800077</v>
+        <v>15.72104689556196</v>
       </c>
       <c r="L4">
-        <v>7.082060431350695</v>
+        <v>5.569325711685937</v>
       </c>
       <c r="M4">
-        <v>10.81228456616046</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.75883124975991</v>
+        <v>7.255566908243588</v>
       </c>
       <c r="O4">
-        <v>22.5459709607139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.30798590613037</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.12218553603593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09138269009585</v>
+        <v>18.31459503736372</v>
       </c>
       <c r="C5">
-        <v>6.290524621743006</v>
+        <v>12.04429012399742</v>
       </c>
       <c r="D5">
-        <v>8.905039233464695</v>
+        <v>8.413756178313161</v>
       </c>
       <c r="E5">
-        <v>8.587036305407572</v>
+        <v>8.440773374736231</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.153292322233725</v>
+        <v>24.53105637680153</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.3279713724779</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.675384210742643</v>
       </c>
       <c r="J5">
-        <v>5.220216122609351</v>
+        <v>9.816182633665669</v>
       </c>
       <c r="K5">
-        <v>9.588899698809444</v>
+        <v>15.7671518963895</v>
       </c>
       <c r="L5">
-        <v>7.06885960730658</v>
+        <v>5.550317197151164</v>
       </c>
       <c r="M5">
-        <v>10.74865042317691</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.81291969318568</v>
+        <v>7.20761359062686</v>
       </c>
       <c r="O5">
-        <v>22.55030626468486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.13116128478292</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.11733826515757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.0587882630707</v>
+        <v>18.2500374506923</v>
       </c>
       <c r="C6">
-        <v>6.286205827181353</v>
+        <v>12.02969877492056</v>
       </c>
       <c r="D6">
-        <v>8.898207314852515</v>
+        <v>8.406822302001755</v>
       </c>
       <c r="E6">
-        <v>8.587632911946073</v>
+        <v>8.438415764844386</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.153531857699397</v>
+        <v>24.50116334434343</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.337650450804028</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.686285179949805</v>
       </c>
       <c r="J6">
-        <v>5.220835817408376</v>
+        <v>9.814932909922099</v>
       </c>
       <c r="K6">
-        <v>9.564689978247767</v>
+        <v>15.76894104443837</v>
       </c>
       <c r="L6">
-        <v>7.066705708329422</v>
+        <v>5.547236791628321</v>
       </c>
       <c r="M6">
-        <v>10.73811632486751</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.82195148293449</v>
+        <v>7.201152986962757</v>
       </c>
       <c r="O6">
-        <v>22.55122149904048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.1028487536936</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.10956647968169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.28386029457247</v>
+        <v>18.68931591105419</v>
       </c>
       <c r="C7">
-        <v>6.316099860647714</v>
+        <v>12.22341844759164</v>
       </c>
       <c r="D7">
-        <v>8.945931679126639</v>
+        <v>8.443538878768447</v>
       </c>
       <c r="E7">
-        <v>8.583767325617295</v>
+        <v>8.44492076439937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.151879185203567</v>
+        <v>24.56189063346437</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.27378534939032</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.63892242588488</v>
       </c>
       <c r="J7">
-        <v>5.216563416826281</v>
+        <v>9.799247271615394</v>
       </c>
       <c r="K7">
-        <v>9.731810041977852</v>
+        <v>15.70544627742654</v>
       </c>
       <c r="L7">
-        <v>7.081879846936537</v>
+        <v>5.569351221075699</v>
       </c>
       <c r="M7">
-        <v>10.81142425818265</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.75955733460315</v>
+        <v>7.259045746502638</v>
       </c>
       <c r="O7">
-        <v>22.54601626533151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.30909189318949</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.1028364104794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.24635273188978</v>
+        <v>20.51276199766567</v>
       </c>
       <c r="C8">
-        <v>6.44589158070738</v>
+        <v>13.0214705321972</v>
       </c>
       <c r="D8">
-        <v>9.163781983114607</v>
+        <v>8.611834899838474</v>
       </c>
       <c r="E8">
-        <v>8.573623778199762</v>
+        <v>8.475409554754703</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.144828875973031</v>
+        <v>24.90215000971271</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.00126670592855</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.430811096131613</v>
       </c>
       <c r="J8">
-        <v>5.198421553902264</v>
+        <v>9.744992271063138</v>
       </c>
       <c r="K8">
-        <v>10.44519452255136</v>
+        <v>15.45144172532384</v>
       </c>
       <c r="L8">
-        <v>7.154374590463855</v>
+        <v>5.663731114759747</v>
       </c>
       <c r="M8">
-        <v>11.13907305215259</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.4914375940764</v>
+        <v>7.507161428491346</v>
       </c>
       <c r="O8">
-        <v>22.55216009058949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.17816640403605</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.10742758531636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.00987059752583</v>
+        <v>23.67623266446896</v>
       </c>
       <c r="C9">
-        <v>6.692201288690802</v>
+        <v>14.42933672255554</v>
       </c>
       <c r="D9">
-        <v>9.614551733850266</v>
+        <v>8.956197779906391</v>
       </c>
       <c r="E9">
-        <v>8.579518816230502</v>
+        <v>8.536437979703141</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.131834170026708</v>
+        <v>25.75104502397772</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.500879495002617</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.041265004242487</v>
       </c>
       <c r="J9">
-        <v>5.165349592092954</v>
+        <v>9.681050055844112</v>
       </c>
       <c r="K9">
-        <v>11.81679854594133</v>
+        <v>15.02269372579735</v>
       </c>
       <c r="L9">
-        <v>7.316351950180201</v>
+        <v>5.83773069557281</v>
       </c>
       <c r="M9">
-        <v>11.79156677593498</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.99036310779037</v>
+        <v>7.97155718995345</v>
       </c>
       <c r="O9">
-        <v>22.67572175233538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.73262868786638</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.21095554556968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.22120818496349</v>
+        <v>25.76130662386908</v>
       </c>
       <c r="C10">
-        <v>6.867734878308227</v>
+        <v>15.45955427953406</v>
       </c>
       <c r="D10">
-        <v>9.957856746823671</v>
+        <v>9.154197952133785</v>
       </c>
       <c r="E10">
-        <v>8.600443169268351</v>
+        <v>8.541899881360198</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.122752313645062</v>
+        <v>26.20622045667105</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.181238411699156</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.784367500610865</v>
       </c>
       <c r="J10">
-        <v>5.1425270715467</v>
+        <v>9.612948547843866</v>
       </c>
       <c r="K10">
-        <v>12.88134083479183</v>
+        <v>14.65986191603122</v>
       </c>
       <c r="L10">
-        <v>7.447320212785341</v>
+        <v>5.977032039029244</v>
       </c>
       <c r="M10">
-        <v>12.27289642426248</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.63608981426623</v>
+        <v>8.234499016144419</v>
       </c>
       <c r="O10">
-        <v>22.84077972639759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.73686247411808</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.22794612963686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75272910349726</v>
+        <v>26.74650862066327</v>
       </c>
       <c r="C11">
-        <v>6.946341703190696</v>
+        <v>16.42131858063786</v>
       </c>
       <c r="D11">
-        <v>10.11621240776159</v>
+        <v>8.752678462938359</v>
       </c>
       <c r="E11">
-        <v>8.613755460161931</v>
+        <v>8.318797411967946</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.118712123362504</v>
+        <v>24.55427120228621</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.0332786070296</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.724121688995638</v>
       </c>
       <c r="J11">
-        <v>5.132453491980614</v>
+        <v>9.260504587185309</v>
       </c>
       <c r="K11">
-        <v>13.34088836147433</v>
+        <v>13.92451992770763</v>
       </c>
       <c r="L11">
-        <v>7.509464870361307</v>
+        <v>6.228811826101868</v>
       </c>
       <c r="M11">
-        <v>12.49150114710683</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.47766210923668</v>
+        <v>7.774662419245548</v>
       </c>
       <c r="O11">
-        <v>22.93333855578756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.78371827003857</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.43927263114354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.95112469150009</v>
+        <v>27.1582760290054</v>
       </c>
       <c r="C12">
-        <v>6.975924669653382</v>
+        <v>16.99752190506818</v>
       </c>
       <c r="D12">
-        <v>10.17645607673226</v>
+        <v>8.376511657784791</v>
       </c>
       <c r="E12">
-        <v>8.619357760741433</v>
+        <v>8.256026502518754</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.117194476618257</v>
+        <v>23.10969592355264</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.330921920814615</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.706387884709294</v>
       </c>
       <c r="J12">
-        <v>5.128682321419239</v>
+        <v>8.988800667497088</v>
       </c>
       <c r="K12">
-        <v>13.5114010072561</v>
+        <v>13.4385048228165</v>
       </c>
       <c r="L12">
-        <v>7.533362997913258</v>
+        <v>6.458328032993804</v>
       </c>
       <c r="M12">
-        <v>12.57417160765408</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.41804011625058</v>
+        <v>7.335050830184856</v>
       </c>
       <c r="O12">
-        <v>22.97100990341931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.60531827552064</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.79479087139343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.90852565764702</v>
+        <v>27.16654078205622</v>
       </c>
       <c r="C13">
-        <v>6.969561682947102</v>
+        <v>17.36178966321749</v>
       </c>
       <c r="D13">
-        <v>10.16346971614876</v>
+        <v>7.989986167951534</v>
       </c>
       <c r="E13">
-        <v>8.618125991885332</v>
+        <v>8.306913765906009</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.117520796340673</v>
+        <v>21.65618871745058</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.715506089091734</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.735419506701738</v>
       </c>
       <c r="J13">
-        <v>5.129492591238921</v>
+        <v>8.751883867404311</v>
       </c>
       <c r="K13">
-        <v>13.47483331729254</v>
+        <v>13.09764895018094</v>
       </c>
       <c r="L13">
-        <v>7.52819992159723</v>
+        <v>6.679861216711565</v>
       </c>
       <c r="M13">
-        <v>12.5563728353651</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.43086462796152</v>
+        <v>6.888316312070534</v>
       </c>
       <c r="O13">
-        <v>22.96277839187613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.24236395589997</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.19334259853521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76910928226763</v>
+        <v>26.98987381351764</v>
       </c>
       <c r="C14">
-        <v>6.948779216904175</v>
+        <v>17.53334017156144</v>
       </c>
       <c r="D14">
-        <v>10.12116332059214</v>
+        <v>7.71541795699189</v>
       </c>
       <c r="E14">
-        <v>8.614205026241208</v>
+        <v>8.407431466141508</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.11858702435879</v>
+        <v>20.62650822355999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.708737056493572</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.779838002103265</v>
       </c>
       <c r="J14">
-        <v>5.132142369350589</v>
+        <v>8.602274817882453</v>
       </c>
       <c r="K14">
-        <v>13.35498657235841</v>
+        <v>12.93258059534048</v>
       </c>
       <c r="L14">
-        <v>7.51142368413881</v>
+        <v>6.835006272243644</v>
       </c>
       <c r="M14">
-        <v>12.49830502672929</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.47274966140316</v>
+        <v>6.577024634607821</v>
       </c>
       <c r="O14">
-        <v>22.93638464307527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.90070414193409</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.79208692943545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.68333590700535</v>
+        <v>26.85926456808946</v>
       </c>
       <c r="C15">
-        <v>6.936025308050657</v>
+        <v>17.53919306236535</v>
       </c>
       <c r="D15">
-        <v>10.09528458251782</v>
+        <v>7.645639252748849</v>
       </c>
       <c r="E15">
-        <v>8.611876879602738</v>
+        <v>8.439063755053894</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.119241694294338</v>
+        <v>20.36268489082617</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.941936096372384</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.805550826771021</v>
       </c>
       <c r="J15">
-        <v>5.133771070063188</v>
+        <v>8.571299172852049</v>
       </c>
       <c r="K15">
-        <v>13.28112154437876</v>
+        <v>12.91613282910288</v>
       </c>
       <c r="L15">
-        <v>7.501195214881926</v>
+        <v>6.865776528429765</v>
       </c>
       <c r="M15">
-        <v>12.46272078089044</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.49845312698846</v>
+        <v>6.499786275727096</v>
       </c>
       <c r="O15">
-        <v>22.92056230637226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.77885243313367</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.69896529409248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.18607249137215</v>
+        <v>26.01188613002746</v>
       </c>
       <c r="C16">
-        <v>6.86257225981021</v>
+        <v>17.07913560398017</v>
       </c>
       <c r="D16">
-        <v>9.947548622716965</v>
+        <v>7.632257048456811</v>
       </c>
       <c r="E16">
-        <v>8.599650855011205</v>
+        <v>8.417059551413793</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.123018115033891</v>
+        <v>20.40584423311366</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.759391278442825</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.915175381641765</v>
       </c>
       <c r="J16">
-        <v>5.143191536168646</v>
+        <v>8.645623103143469</v>
       </c>
       <c r="K16">
-        <v>12.85081485136956</v>
+        <v>13.14112095055886</v>
       </c>
       <c r="L16">
-        <v>7.443310236421802</v>
+        <v>6.760742491679326</v>
       </c>
       <c r="M16">
-        <v>12.25859773881522</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.64649657894385</v>
+        <v>6.471135714839281</v>
       </c>
       <c r="O16">
-        <v>22.83509169267096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.41696911047499</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.80230600972243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.87595854011969</v>
+        <v>25.44482079707736</v>
       </c>
       <c r="C17">
-        <v>6.817188689434338</v>
+        <v>16.62447294526709</v>
       </c>
       <c r="D17">
-        <v>9.857450211032516</v>
+        <v>7.768155833111195</v>
       </c>
       <c r="E17">
-        <v>8.59313333716436</v>
+        <v>8.337688199919535</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.125357610662336</v>
+        <v>20.98894783845406</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.064982271275253</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.976426847254069</v>
       </c>
       <c r="J17">
-        <v>5.149049077088138</v>
+        <v>8.780818866141965</v>
       </c>
       <c r="K17">
-        <v>12.58053710255727</v>
+        <v>13.39409603513222</v>
       </c>
       <c r="L17">
-        <v>7.408454356458027</v>
+        <v>6.592945302051039</v>
       </c>
       <c r="M17">
-        <v>12.13323986533537</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.73800108721836</v>
+        <v>6.614163457512312</v>
       </c>
       <c r="O17">
-        <v>22.78721097153126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.32480889857694</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.09233376776112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.69575445919551</v>
+        <v>25.06846710261637</v>
       </c>
       <c r="C18">
-        <v>6.790968354140789</v>
+        <v>16.10906738331967</v>
       </c>
       <c r="D18">
-        <v>9.805835623878385</v>
+        <v>8.053697765177768</v>
       </c>
       <c r="E18">
-        <v>8.589740762960583</v>
+        <v>8.25907912382522</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.126711862616872</v>
+        <v>22.13608225309139</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.890706309315236</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.990958901320131</v>
       </c>
       <c r="J18">
-        <v>5.152447271452989</v>
+        <v>8.991026502066919</v>
       </c>
       <c r="K18">
-        <v>12.4227510057385</v>
+        <v>13.73212528438971</v>
       </c>
       <c r="L18">
-        <v>7.388647985432588</v>
+        <v>6.369103926299304</v>
       </c>
       <c r="M18">
-        <v>12.06110714687027</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.79089065218091</v>
+        <v>6.930786389441357</v>
       </c>
       <c r="O18">
-        <v>22.7613094249523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.45385734425131</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.5928661786894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.63442791137085</v>
+        <v>24.87827399539622</v>
       </c>
       <c r="C19">
-        <v>6.782070687262684</v>
+        <v>15.6459619056346</v>
       </c>
       <c r="D19">
-        <v>9.788396624063003</v>
+        <v>8.438440320610985</v>
       </c>
       <c r="E19">
-        <v>8.588652786752901</v>
+        <v>8.275376883584046</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.127171896663824</v>
+        <v>23.58499631002474</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.549030965622213</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.983420884916239</v>
       </c>
       <c r="J19">
-        <v>5.153602864874752</v>
+        <v>9.238567962455949</v>
       </c>
       <c r="K19">
-        <v>12.36892587313092</v>
+        <v>14.12815389288886</v>
       </c>
       <c r="L19">
-        <v>7.381983534008309</v>
+        <v>6.148809940488056</v>
       </c>
       <c r="M19">
-        <v>12.03668097315474</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.80884321853801</v>
+        <v>7.384538638599267</v>
       </c>
       <c r="O19">
-        <v>22.75281764762873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.75112614072827</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.20454607438297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.90916118346624</v>
+        <v>25.22795928229511</v>
       </c>
       <c r="C20">
-        <v>6.822031986104836</v>
+        <v>15.27379557231486</v>
       </c>
       <c r="D20">
-        <v>9.867020123076662</v>
+        <v>9.089299886903653</v>
       </c>
       <c r="E20">
-        <v>8.593790167060543</v>
+        <v>8.5305695805847</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.125107679400138</v>
+        <v>25.9389769799947</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.265556395041463</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.880846626434118</v>
       </c>
       <c r="J20">
-        <v>5.148422527326042</v>
+        <v>9.604344326946663</v>
       </c>
       <c r="K20">
-        <v>12.60954939346939</v>
+        <v>14.70041620223218</v>
       </c>
       <c r="L20">
-        <v>7.412139825368823</v>
+        <v>5.94297077265155</v>
       </c>
       <c r="M20">
-        <v>12.14658799885886</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.72823366901722</v>
+        <v>8.174536757925111</v>
       </c>
       <c r="O20">
-        <v>22.79213762252997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.48578576333465</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.15888679938717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81013787932758</v>
+        <v>26.73435595072491</v>
       </c>
       <c r="C21">
-        <v>6.954888549368462</v>
+        <v>15.9377513421578</v>
       </c>
       <c r="D21">
-        <v>10.13358246978555</v>
+        <v>9.332042248535394</v>
       </c>
       <c r="E21">
-        <v>8.615341351110239</v>
+        <v>8.591576804011</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.118273520775164</v>
+        <v>26.66393873204746</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.98548325346477</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.677943208060289</v>
       </c>
       <c r="J21">
-        <v>5.131362892548544</v>
+        <v>9.620082161694189</v>
       </c>
       <c r="K21">
-        <v>13.39028329315377</v>
+        <v>14.5442994959983</v>
       </c>
       <c r="L21">
-        <v>7.516341387652171</v>
+        <v>6.020781338076299</v>
       </c>
       <c r="M21">
-        <v>12.51536438900259</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.4604371167039</v>
+        <v>8.475671827917196</v>
       </c>
       <c r="O21">
-        <v>22.94406511962595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.29400656664037</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.33780573251446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38217352121467</v>
+        <v>27.68121975951098</v>
       </c>
       <c r="C22">
-        <v>7.040645758660865</v>
+        <v>16.35630593383905</v>
       </c>
       <c r="D22">
-        <v>10.30940101419423</v>
+        <v>9.465833974583598</v>
       </c>
       <c r="E22">
-        <v>8.632705013698907</v>
+        <v>8.616313955461589</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.113878190032938</v>
+        <v>27.0950895261556</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.817765303986555</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.538209602094961</v>
       </c>
       <c r="J22">
-        <v>5.120466416321114</v>
+        <v>9.625530587588232</v>
       </c>
       <c r="K22">
-        <v>13.88011360469091</v>
+        <v>14.43542353698654</v>
       </c>
       <c r="L22">
-        <v>7.586570669077594</v>
+        <v>6.078857381256299</v>
       </c>
       <c r="M22">
-        <v>12.75571444829698</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.28756925772038</v>
+        <v>8.630021536294445</v>
       </c>
       <c r="O22">
-        <v>23.05868794477672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.77749944534068</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.44065857757608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.07842339720652</v>
+        <v>27.18100397582494</v>
       </c>
       <c r="C23">
-        <v>6.994974884071087</v>
+        <v>16.10640073074965</v>
       </c>
       <c r="D23">
-        <v>10.21542774964816</v>
+        <v>9.39815315190909</v>
       </c>
       <c r="E23">
-        <v>8.623132445000039</v>
+        <v>8.606292615379632</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.116217834685457</v>
+        <v>26.91319268346454</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.90620037749916</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.600289978902352</v>
       </c>
       <c r="J23">
-        <v>5.126259221387919</v>
+        <v>9.631138838350358</v>
       </c>
       <c r="K23">
-        <v>13.62053490254687</v>
+        <v>14.51217529177934</v>
       </c>
       <c r="L23">
-        <v>7.548894536982751</v>
+        <v>6.047413167113042</v>
       </c>
       <c r="M23">
-        <v>12.6275141106166</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.37964251585447</v>
+        <v>8.543666478119896</v>
       </c>
       <c r="O23">
-        <v>22.9960730758504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.51811701720981</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.4066129451016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.8941562288365</v>
+        <v>25.19583519958821</v>
       </c>
       <c r="C24">
-        <v>6.81984273222115</v>
+        <v>15.17482607343755</v>
       </c>
       <c r="D24">
-        <v>9.862692989338568</v>
+        <v>9.136348929702967</v>
       </c>
       <c r="E24">
-        <v>8.593492111467784</v>
+        <v>8.562883019071183</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.125220644466469</v>
+        <v>26.1715782119978</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.249062277047337</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.862157673628645</v>
       </c>
       <c r="J24">
-        <v>5.148705695044436</v>
+        <v>9.646675432260917</v>
       </c>
       <c r="K24">
-        <v>12.59644041513411</v>
+        <v>14.78454168662457</v>
       </c>
       <c r="L24">
-        <v>7.410472899656738</v>
+        <v>5.927066779438652</v>
       </c>
       <c r="M24">
-        <v>12.14055349874072</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.73264863751358</v>
+        <v>8.217648095628816</v>
       </c>
       <c r="O24">
-        <v>22.78990522809967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.50388762859046</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.2610327516961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54708815840361</v>
+        <v>22.8625143434064</v>
       </c>
       <c r="C25">
-        <v>6.626494404338853</v>
+        <v>14.10761411623767</v>
       </c>
       <c r="D25">
-        <v>9.490317070645068</v>
+        <v>8.85624345430921</v>
       </c>
       <c r="E25">
-        <v>8.575073656875308</v>
+        <v>8.515207755383772</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.135264745076817</v>
+        <v>25.43055611279643</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.633928605863287</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.159168604812294</v>
       </c>
       <c r="J25">
-        <v>5.174033561580178</v>
+        <v>9.681305505662666</v>
       </c>
       <c r="K25">
-        <v>11.40654511847754</v>
+        <v>15.10492526297891</v>
       </c>
       <c r="L25">
-        <v>7.270421113238419</v>
+        <v>5.792476243393433</v>
       </c>
       <c r="M25">
-        <v>11.61442461378451</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.12339315961874</v>
+        <v>7.854744595814924</v>
       </c>
       <c r="O25">
-        <v>22.62970502851786</v>
+        <v>14.33351082724684</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.14207446391076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98029573850631</v>
+        <v>21.02362748915953</v>
       </c>
       <c r="C2">
-        <v>13.19174816731781</v>
+        <v>13.29346071957929</v>
       </c>
       <c r="D2">
-        <v>8.662970543792879</v>
+        <v>8.600545931525614</v>
       </c>
       <c r="E2">
-        <v>8.487539591699882</v>
+        <v>8.411854920713608</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.06514266896072</v>
+        <v>23.64897514726944</v>
       </c>
       <c r="H2">
-        <v>2.928709265358379</v>
+        <v>2.815951977791476</v>
       </c>
       <c r="I2">
-        <v>3.365054895250209</v>
+        <v>3.218214721382619</v>
       </c>
       <c r="J2">
-        <v>9.743029767009762</v>
+        <v>9.858068011856417</v>
       </c>
       <c r="K2">
-        <v>15.40810664579742</v>
+        <v>14.84326364658186</v>
       </c>
       <c r="L2">
-        <v>5.688102952942526</v>
+        <v>12.08180275637625</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.831702010797262</v>
       </c>
       <c r="N2">
-        <v>7.567850741781899</v>
+        <v>5.673940049683178</v>
       </c>
       <c r="O2">
-        <v>13.39966708974395</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.728758970443198</v>
       </c>
       <c r="Q2">
-        <v>16.13953259369222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.43650200512636</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.68717281906885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59733465863812</v>
+        <v>19.64865959504299</v>
       </c>
       <c r="C3">
-        <v>12.58312352173565</v>
+        <v>12.58390886825447</v>
       </c>
       <c r="D3">
-        <v>8.528805758863763</v>
+        <v>8.476435264512343</v>
       </c>
       <c r="E3">
-        <v>8.463420188787559</v>
+        <v>8.398132028720367</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.77499661475575</v>
+        <v>23.47253138301314</v>
       </c>
       <c r="H3">
-        <v>3.138659264587104</v>
+        <v>3.011947211298792</v>
       </c>
       <c r="I3">
-        <v>3.526441627368204</v>
+        <v>3.362422031544535</v>
       </c>
       <c r="J3">
-        <v>9.780436120504058</v>
+        <v>9.868133071491807</v>
       </c>
       <c r="K3">
-        <v>15.59894562722288</v>
+        <v>15.04871095086523</v>
       </c>
       <c r="L3">
-        <v>5.615335582215966</v>
+        <v>12.27021560569649</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.989654012762463</v>
       </c>
       <c r="N3">
-        <v>7.375390694399182</v>
+        <v>5.600634731917333</v>
       </c>
       <c r="O3">
-        <v>12.73411332686921</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.53535232775677</v>
       </c>
       <c r="Q3">
-        <v>16.12425873555394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.75908915886253</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.69945727478295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69567497306858</v>
+        <v>18.75225274114288</v>
       </c>
       <c r="C4">
-        <v>12.19627828223194</v>
+        <v>12.13166305833054</v>
       </c>
       <c r="D4">
-        <v>8.447609010166991</v>
+        <v>8.401479392622917</v>
       </c>
       <c r="E4">
-        <v>8.448086674687852</v>
+        <v>8.389310674572773</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.609384816661</v>
+        <v>23.37844474413171</v>
       </c>
       <c r="H4">
-        <v>3.27213681100467</v>
+        <v>3.136589379817483</v>
       </c>
       <c r="I4">
-        <v>3.629707519183076</v>
+        <v>3.454986082719356</v>
       </c>
       <c r="J4">
-        <v>9.806881557596988</v>
+        <v>9.875710839119565</v>
       </c>
       <c r="K4">
-        <v>15.72104689556196</v>
+        <v>15.17856805281811</v>
       </c>
       <c r="L4">
-        <v>5.569325711685937</v>
+        <v>12.38934269062963</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.10340580311959</v>
       </c>
       <c r="N4">
-        <v>7.255566908243588</v>
+        <v>5.554410271486883</v>
       </c>
       <c r="O4">
-        <v>12.30798590613037</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.415306322693323</v>
       </c>
       <c r="Q4">
-        <v>16.12218553603593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.32493296955741</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.71292331730303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31459503736372</v>
+        <v>18.37341328200982</v>
       </c>
       <c r="C5">
-        <v>12.04429012399742</v>
+        <v>11.95243738846624</v>
       </c>
       <c r="D5">
-        <v>8.413756178313161</v>
+        <v>8.370218531874968</v>
       </c>
       <c r="E5">
-        <v>8.440773374736231</v>
+        <v>8.384739917622232</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.53105637680153</v>
+        <v>23.32992353347591</v>
       </c>
       <c r="H5">
-        <v>3.3279713724779</v>
+        <v>3.188746349239014</v>
       </c>
       <c r="I5">
-        <v>3.675384210742643</v>
+        <v>3.496705423153088</v>
       </c>
       <c r="J5">
-        <v>9.816182633665669</v>
+        <v>9.876858211593381</v>
       </c>
       <c r="K5">
-        <v>15.7671518963895</v>
+        <v>15.22782191827565</v>
       </c>
       <c r="L5">
-        <v>5.550317197151164</v>
+        <v>12.43408830792997</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.15165269773211</v>
       </c>
       <c r="N5">
-        <v>7.20761359062686</v>
+        <v>5.535360085147055</v>
       </c>
       <c r="O5">
-        <v>12.13116128478292</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.367305952967889</v>
       </c>
       <c r="Q5">
-        <v>16.11733826515757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.14462077283352</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.71424859051236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2500374506923</v>
+        <v>18.30923514195231</v>
       </c>
       <c r="C6">
-        <v>12.02969877492056</v>
+        <v>11.93356868578282</v>
       </c>
       <c r="D6">
-        <v>8.406822302001755</v>
+        <v>8.363759626317414</v>
       </c>
       <c r="E6">
-        <v>8.438415764844386</v>
+        <v>8.382908757864945</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.50116334434343</v>
+        <v>23.30538662533407</v>
       </c>
       <c r="H6">
-        <v>3.337650450804028</v>
+        <v>3.197800693655919</v>
       </c>
       <c r="I6">
-        <v>3.686285179949805</v>
+        <v>3.507532031645208</v>
       </c>
       <c r="J6">
-        <v>9.814932909922099</v>
+        <v>9.874276669535504</v>
       </c>
       <c r="K6">
-        <v>15.76894104443837</v>
+        <v>15.23046020308122</v>
       </c>
       <c r="L6">
-        <v>5.547236791628321</v>
+        <v>12.43587963207599</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.15720677237448</v>
       </c>
       <c r="N6">
-        <v>7.201152986962757</v>
+        <v>5.532293138540605</v>
       </c>
       <c r="O6">
-        <v>12.1028487536936</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.360780523313866</v>
       </c>
       <c r="Q6">
-        <v>16.10956647968169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.11568263421251</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.70770981152722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68931591105419</v>
+        <v>18.74586721560582</v>
       </c>
       <c r="C7">
-        <v>12.22341844759164</v>
+        <v>12.15391941438219</v>
       </c>
       <c r="D7">
-        <v>8.443538878768447</v>
+        <v>8.397768735445155</v>
       </c>
       <c r="E7">
-        <v>8.44492076439937</v>
+        <v>8.386062935741091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.56189063346437</v>
+        <v>23.40213646683726</v>
       </c>
       <c r="H7">
-        <v>3.27378534939032</v>
+        <v>3.138737292533774</v>
       </c>
       <c r="I7">
-        <v>3.63892242588488</v>
+        <v>3.466192313941682</v>
       </c>
       <c r="J7">
-        <v>9.799247271615394</v>
+        <v>9.833277095211985</v>
       </c>
       <c r="K7">
-        <v>15.70544627742654</v>
+        <v>15.15828246074428</v>
       </c>
       <c r="L7">
-        <v>5.569351221075699</v>
+        <v>12.36909382280527</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.09336981598897</v>
       </c>
       <c r="N7">
-        <v>7.259045746502638</v>
+        <v>5.554054613793578</v>
       </c>
       <c r="O7">
-        <v>12.30909189318949</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.417934197953093</v>
       </c>
       <c r="Q7">
-        <v>16.1028364104794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.32557103163486</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.68358058995889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.51276199766567</v>
+        <v>20.55861370685043</v>
       </c>
       <c r="C8">
-        <v>13.0214705321972</v>
+        <v>13.07347986081051</v>
       </c>
       <c r="D8">
-        <v>8.611834899838474</v>
+        <v>8.553760773483351</v>
       </c>
       <c r="E8">
-        <v>8.475409554754703</v>
+        <v>8.402664010138437</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.90215000971271</v>
+        <v>23.75681699730921</v>
       </c>
       <c r="H8">
-        <v>3.00126670592855</v>
+        <v>2.885485772545318</v>
       </c>
       <c r="I8">
-        <v>3.430811096131613</v>
+        <v>3.281609341861617</v>
       </c>
       <c r="J8">
-        <v>9.744992271063138</v>
+        <v>9.737579419784087</v>
       </c>
       <c r="K8">
-        <v>15.45144172532384</v>
+        <v>14.87477347641988</v>
       </c>
       <c r="L8">
-        <v>5.663731114759747</v>
+        <v>12.11100381431344</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.859072854941143</v>
       </c>
       <c r="N8">
-        <v>7.507161428491346</v>
+        <v>5.648073526715049</v>
       </c>
       <c r="O8">
-        <v>13.17816640403605</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.665273903972587</v>
       </c>
       <c r="Q8">
-        <v>16.10742758531636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.20986394551398</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.63050824567618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67623266446896</v>
+        <v>23.70356834344657</v>
       </c>
       <c r="C9">
-        <v>14.42933672255554</v>
+        <v>14.70973108618404</v>
       </c>
       <c r="D9">
-        <v>8.956197779906391</v>
+        <v>8.87372470603999</v>
       </c>
       <c r="E9">
-        <v>8.536437979703141</v>
+        <v>8.438213203592785</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.75104502397772</v>
+        <v>24.39089189644992</v>
       </c>
       <c r="H9">
-        <v>2.500879495002617</v>
+        <v>2.418820762894645</v>
       </c>
       <c r="I9">
-        <v>3.041265004242487</v>
+        <v>2.932750648209336</v>
       </c>
       <c r="J9">
-        <v>9.681050055844112</v>
+        <v>9.698575521842887</v>
       </c>
       <c r="K9">
-        <v>15.02269372579735</v>
+        <v>14.39614807764725</v>
       </c>
       <c r="L9">
-        <v>5.83773069557281</v>
+        <v>11.67636242791818</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.565251214016749</v>
       </c>
       <c r="N9">
-        <v>7.97155718995345</v>
+        <v>5.823675039864639</v>
       </c>
       <c r="O9">
-        <v>14.73262868786638</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.133561601447925</v>
       </c>
       <c r="Q9">
-        <v>16.21095554556968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.78960272197334</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.64773358760508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76130662386908</v>
+        <v>25.77611273293354</v>
       </c>
       <c r="C10">
-        <v>15.45955427953406</v>
+        <v>15.85532148588914</v>
       </c>
       <c r="D10">
-        <v>9.154197952133785</v>
+        <v>9.057798055460184</v>
       </c>
       <c r="E10">
-        <v>8.541899881360198</v>
+        <v>8.428621271797892</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.20622045667105</v>
+        <v>25.1135099847125</v>
       </c>
       <c r="H10">
-        <v>2.181238411699156</v>
+        <v>2.125231992670568</v>
       </c>
       <c r="I10">
-        <v>2.784367500610865</v>
+        <v>2.708011103897875</v>
       </c>
       <c r="J10">
-        <v>9.612948547843866</v>
+        <v>9.453486530472976</v>
       </c>
       <c r="K10">
-        <v>14.65986191603122</v>
+        <v>13.97122433689831</v>
       </c>
       <c r="L10">
-        <v>5.977032039029244</v>
+        <v>11.30903444876705</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.362129952495522</v>
       </c>
       <c r="N10">
-        <v>8.234499016144419</v>
+        <v>5.963584442191162</v>
       </c>
       <c r="O10">
-        <v>15.73686247411808</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.395197159501052</v>
       </c>
       <c r="Q10">
-        <v>16.22794612963686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.80549602826178</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.54580742572664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.74650862066327</v>
+        <v>26.75943215230028</v>
       </c>
       <c r="C11">
-        <v>16.42131858063786</v>
+        <v>16.73472785768501</v>
       </c>
       <c r="D11">
-        <v>8.752678462938359</v>
+        <v>8.668183735057356</v>
       </c>
       <c r="E11">
-        <v>8.318797411967946</v>
+        <v>8.228568226081636</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.55427120228621</v>
+        <v>24.42009720181507</v>
       </c>
       <c r="H11">
-        <v>3.0332786070296</v>
+        <v>3.002055523191101</v>
       </c>
       <c r="I11">
-        <v>2.724121688995638</v>
+        <v>2.664755159043436</v>
       </c>
       <c r="J11">
-        <v>9.260504587185309</v>
+        <v>8.813325586592594</v>
       </c>
       <c r="K11">
-        <v>13.92451992770763</v>
+        <v>13.27935808998909</v>
       </c>
       <c r="L11">
-        <v>6.228811826101868</v>
+        <v>10.82319530755695</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.836362513529822</v>
       </c>
       <c r="N11">
-        <v>7.774662419245548</v>
+        <v>6.219158085017166</v>
       </c>
       <c r="O11">
-        <v>15.78371827003857</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.912552829071667</v>
       </c>
       <c r="Q11">
-        <v>15.43927263114354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.84163881916704</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.7010918565506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.1582760290054</v>
+        <v>27.17230424341082</v>
       </c>
       <c r="C12">
-        <v>16.99752190506818</v>
+        <v>17.22719021696309</v>
       </c>
       <c r="D12">
-        <v>8.376511657784791</v>
+        <v>8.303498414023959</v>
       </c>
       <c r="E12">
-        <v>8.256026502518754</v>
+        <v>8.183589418271501</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.10969592355264</v>
+        <v>23.47339636645605</v>
       </c>
       <c r="H12">
-        <v>4.330921920814615</v>
+        <v>4.310703598457859</v>
       </c>
       <c r="I12">
-        <v>2.706387884709294</v>
+        <v>2.65068250192738</v>
       </c>
       <c r="J12">
-        <v>8.988800667497088</v>
+        <v>8.486004822644583</v>
       </c>
       <c r="K12">
-        <v>13.4385048228165</v>
+        <v>12.86560672224228</v>
       </c>
       <c r="L12">
-        <v>6.458328032993804</v>
+        <v>10.56168243433439</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.481445522915569</v>
       </c>
       <c r="N12">
-        <v>7.335050830184856</v>
+        <v>6.449878795325025</v>
       </c>
       <c r="O12">
-        <v>15.60531827552064</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.456665557693741</v>
       </c>
       <c r="Q12">
-        <v>14.79479087139343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.65320503711456</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.07553248123483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.16654078205622</v>
+        <v>27.18410231330228</v>
       </c>
       <c r="C13">
-        <v>17.36178966321749</v>
+        <v>17.5126015903425</v>
       </c>
       <c r="D13">
-        <v>7.989986167951534</v>
+        <v>7.928378570751077</v>
       </c>
       <c r="E13">
-        <v>8.306913765906009</v>
+        <v>8.250306180208723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.65618871745058</v>
+        <v>22.01980871789537</v>
       </c>
       <c r="H13">
-        <v>5.715506089091734</v>
+        <v>5.698511159417514</v>
       </c>
       <c r="I13">
-        <v>2.735419506701738</v>
+        <v>2.675403638752482</v>
       </c>
       <c r="J13">
-        <v>8.751883867404311</v>
+        <v>8.374285765566986</v>
       </c>
       <c r="K13">
-        <v>13.09764895018094</v>
+        <v>12.6228189054768</v>
       </c>
       <c r="L13">
-        <v>6.679861216711565</v>
+        <v>10.42014813717979</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.239970112377121</v>
       </c>
       <c r="N13">
-        <v>6.888316312070534</v>
+        <v>6.672325968681156</v>
       </c>
       <c r="O13">
-        <v>15.24236395589997</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.998955579114496</v>
       </c>
       <c r="Q13">
-        <v>14.19334259853521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.2805373275302</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.57341477700414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.98987381351764</v>
+        <v>27.01099807511028</v>
       </c>
       <c r="C14">
-        <v>17.53334017156144</v>
+        <v>17.62993237317947</v>
       </c>
       <c r="D14">
-        <v>7.71541795699189</v>
+        <v>7.661839378718402</v>
       </c>
       <c r="E14">
-        <v>8.407431466141508</v>
+        <v>8.360536863353673</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.62650822355999</v>
+        <v>20.77762857352611</v>
       </c>
       <c r="H14">
-        <v>6.708737056493572</v>
+        <v>6.692098147612541</v>
       </c>
       <c r="I14">
-        <v>2.779838002103265</v>
+        <v>2.71384703854951</v>
       </c>
       <c r="J14">
-        <v>8.602274817882453</v>
+        <v>8.372378280184407</v>
       </c>
       <c r="K14">
-        <v>12.93258059534048</v>
+        <v>12.52848826347848</v>
       </c>
       <c r="L14">
-        <v>6.835006272243644</v>
+        <v>10.36648071799891</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.129403752805057</v>
       </c>
       <c r="N14">
-        <v>6.577024634607821</v>
+        <v>6.827906118545251</v>
       </c>
       <c r="O14">
-        <v>14.90070414193409</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.682459383415813</v>
       </c>
       <c r="Q14">
-        <v>13.79208692943545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.93193573515134</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.27252730368735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.85926456808946</v>
+        <v>26.8817882374126</v>
       </c>
       <c r="C15">
-        <v>17.53919306236535</v>
+        <v>17.62330730703332</v>
       </c>
       <c r="D15">
-        <v>7.645639252748849</v>
+        <v>7.594186068736566</v>
       </c>
       <c r="E15">
-        <v>8.439063755053894</v>
+        <v>8.394961378201032</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.36268489082617</v>
+        <v>20.37563978212199</v>
       </c>
       <c r="H15">
-        <v>6.941936096372384</v>
+        <v>6.924754924231515</v>
       </c>
       <c r="I15">
-        <v>2.805550826771021</v>
+        <v>2.737203912284949</v>
       </c>
       <c r="J15">
-        <v>8.571299172852049</v>
+        <v>8.40329361078555</v>
       </c>
       <c r="K15">
-        <v>12.91613282910288</v>
+        <v>12.53113153059041</v>
       </c>
       <c r="L15">
-        <v>6.865776528429765</v>
+        <v>10.36706279048375</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.122884256449643</v>
       </c>
       <c r="N15">
-        <v>6.499786275727096</v>
+        <v>6.859074341604142</v>
       </c>
       <c r="O15">
-        <v>14.77885243313367</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.60487434948383</v>
       </c>
       <c r="Q15">
-        <v>13.69896529409248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.80828642609959</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.21687339094903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01188613002746</v>
+        <v>26.03937394006817</v>
       </c>
       <c r="C16">
-        <v>17.07913560398017</v>
+        <v>17.16869566445305</v>
       </c>
       <c r="D16">
-        <v>7.632257048456811</v>
+        <v>7.582633617060962</v>
       </c>
       <c r="E16">
-        <v>8.417059551413793</v>
+        <v>8.379450396316971</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.40584423311366</v>
+        <v>19.72830992035009</v>
       </c>
       <c r="H16">
-        <v>6.759391278442825</v>
+        <v>6.73573124788118</v>
       </c>
       <c r="I16">
-        <v>2.915175381641765</v>
+        <v>2.831728513125563</v>
       </c>
       <c r="J16">
-        <v>8.645623103143469</v>
+        <v>8.711978129913971</v>
       </c>
       <c r="K16">
-        <v>13.14112095055886</v>
+        <v>12.77585089163813</v>
       </c>
       <c r="L16">
-        <v>6.760742491679326</v>
+        <v>10.50345353815335</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.316121923850863</v>
       </c>
       <c r="N16">
-        <v>6.471135714839281</v>
+        <v>6.757497639658102</v>
       </c>
       <c r="O16">
-        <v>14.41696911047499</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.584084824875207</v>
       </c>
       <c r="Q16">
-        <v>13.80230600972243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.44549503204743</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.42719255854729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44482079707736</v>
+        <v>25.47417222292607</v>
       </c>
       <c r="C17">
-        <v>16.62447294526709</v>
+        <v>16.74108621971691</v>
       </c>
       <c r="D17">
-        <v>7.768155833111195</v>
+        <v>7.715957746979396</v>
       </c>
       <c r="E17">
-        <v>8.337688199919535</v>
+        <v>8.299187372637034</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.98894783845406</v>
+        <v>19.99091183716251</v>
       </c>
       <c r="H17">
-        <v>6.064982271275253</v>
+        <v>6.034782280183912</v>
       </c>
       <c r="I17">
-        <v>2.976426847254069</v>
+        <v>2.885173987463834</v>
       </c>
       <c r="J17">
-        <v>8.780818866141965</v>
+        <v>8.939381905092837</v>
       </c>
       <c r="K17">
-        <v>13.39409603513222</v>
+        <v>13.01235661155406</v>
       </c>
       <c r="L17">
-        <v>6.592945302051039</v>
+        <v>10.6502455799928</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.509741954561246</v>
       </c>
       <c r="N17">
-        <v>6.614163457512312</v>
+        <v>6.591464894626597</v>
       </c>
       <c r="O17">
-        <v>14.32480889857694</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.735105283672049</v>
       </c>
       <c r="Q17">
-        <v>14.09233376776112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.3560259242942</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.73700098532787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.06846710261637</v>
+        <v>25.09721904839877</v>
       </c>
       <c r="C18">
-        <v>16.10906738331967</v>
+        <v>16.28240697597573</v>
       </c>
       <c r="D18">
-        <v>8.053697765177768</v>
+        <v>7.993863902752585</v>
       </c>
       <c r="E18">
-        <v>8.25907912382522</v>
+        <v>8.211475881216208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.13608225309139</v>
+        <v>20.93241466807999</v>
       </c>
       <c r="H18">
-        <v>4.890706309315236</v>
+        <v>4.851462992112599</v>
       </c>
       <c r="I18">
-        <v>2.990958901320131</v>
+        <v>2.895021294545812</v>
       </c>
       <c r="J18">
-        <v>8.991026502066919</v>
+        <v>9.169669416855479</v>
       </c>
       <c r="K18">
-        <v>13.73212528438971</v>
+        <v>13.30379231279602</v>
       </c>
       <c r="L18">
-        <v>6.369103926299304</v>
+        <v>10.85021711524919</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.746713700857372</v>
       </c>
       <c r="N18">
-        <v>6.930786389441357</v>
+        <v>6.368018522246521</v>
       </c>
       <c r="O18">
-        <v>14.45385734425131</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.062249367172492</v>
       </c>
       <c r="Q18">
-        <v>14.5928661786894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.4921866166104</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.20525130488426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.87827399539622</v>
+        <v>24.9044915084563</v>
       </c>
       <c r="C19">
-        <v>15.6459619056346</v>
+        <v>15.89637867059937</v>
       </c>
       <c r="D19">
-        <v>8.438440320610985</v>
+        <v>8.367075779340457</v>
       </c>
       <c r="E19">
-        <v>8.275376883584046</v>
+        <v>8.209375536610729</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.58499631002474</v>
+        <v>22.21962950386085</v>
       </c>
       <c r="H19">
-        <v>3.549030965622213</v>
+        <v>3.496410009502111</v>
       </c>
       <c r="I19">
-        <v>2.983420884916239</v>
+        <v>2.889516911269413</v>
       </c>
       <c r="J19">
-        <v>9.238567962455949</v>
+        <v>9.397067523710948</v>
       </c>
       <c r="K19">
-        <v>14.12815389288886</v>
+        <v>13.62981002341676</v>
       </c>
       <c r="L19">
-        <v>6.148809940488056</v>
+        <v>11.08527058085392</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.010484173729701</v>
       </c>
       <c r="N19">
-        <v>7.384538638599267</v>
+        <v>6.145619339451614</v>
       </c>
       <c r="O19">
-        <v>14.75112614072827</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.528651761754619</v>
       </c>
       <c r="Q19">
-        <v>15.20454607438297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.79967092777255</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.75243020942703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.22795928229511</v>
+        <v>25.24627853825318</v>
       </c>
       <c r="C20">
-        <v>15.27379557231486</v>
+        <v>15.65612791830674</v>
       </c>
       <c r="D20">
-        <v>9.089299886903653</v>
+        <v>8.996024540051557</v>
       </c>
       <c r="E20">
-        <v>8.5305695805847</v>
+        <v>8.422755274167923</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.9389769799947</v>
+        <v>24.5370186508187</v>
       </c>
       <c r="H20">
-        <v>2.265556395041463</v>
+        <v>2.20105740429886</v>
       </c>
       <c r="I20">
-        <v>2.880846626434118</v>
+        <v>2.800365855266401</v>
       </c>
       <c r="J20">
-        <v>9.604344326946663</v>
+        <v>9.611261279936405</v>
       </c>
       <c r="K20">
-        <v>14.70041620223218</v>
+        <v>14.05411455630176</v>
       </c>
       <c r="L20">
-        <v>5.94297077265155</v>
+        <v>11.38378645458994</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.387634351877935</v>
       </c>
       <c r="N20">
-        <v>8.174536757925111</v>
+        <v>5.93090198522744</v>
       </c>
       <c r="O20">
-        <v>15.48578576333465</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.3372228831906</v>
       </c>
       <c r="Q20">
-        <v>16.15888679938717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.55239401312693</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.54900628613731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73435595072491</v>
+        <v>26.74166722195387</v>
       </c>
       <c r="C21">
-        <v>15.9377513421578</v>
+        <v>16.34078017756595</v>
       </c>
       <c r="D21">
-        <v>9.332042248535394</v>
+        <v>9.230665232227359</v>
       </c>
       <c r="E21">
-        <v>8.591576804011</v>
+        <v>8.463609489144138</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.66393873204746</v>
+        <v>26.72536092924711</v>
       </c>
       <c r="H21">
-        <v>1.98548325346477</v>
+        <v>1.948709350169778</v>
       </c>
       <c r="I21">
-        <v>2.677943208060289</v>
+        <v>2.628628385648789</v>
       </c>
       <c r="J21">
-        <v>9.620082161694189</v>
+        <v>8.911284683057625</v>
       </c>
       <c r="K21">
-        <v>14.5442994959983</v>
+        <v>13.72299391902682</v>
       </c>
       <c r="L21">
-        <v>6.020781338076299</v>
+        <v>11.10826520427056</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.243780368620511</v>
       </c>
       <c r="N21">
-        <v>8.475671827917196</v>
+        <v>6.001131390882071</v>
       </c>
       <c r="O21">
-        <v>16.29400656664037</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.629436307197929</v>
       </c>
       <c r="Q21">
-        <v>16.33780573251446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.36468259681524</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.42028244869229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.68121975951098</v>
+        <v>27.68169403819157</v>
       </c>
       <c r="C22">
-        <v>16.35630593383905</v>
+        <v>16.76183235073514</v>
       </c>
       <c r="D22">
-        <v>9.465833974583598</v>
+        <v>9.360975578235864</v>
       </c>
       <c r="E22">
-        <v>8.616313955461589</v>
+        <v>8.47798966047892</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.0950895261556</v>
+        <v>28.23664675451634</v>
       </c>
       <c r="H22">
-        <v>1.817765303986555</v>
+        <v>1.79863029254119</v>
       </c>
       <c r="I22">
-        <v>2.538209602094961</v>
+        <v>2.514478032343801</v>
       </c>
       <c r="J22">
-        <v>9.625530587588232</v>
+        <v>8.47328512983332</v>
       </c>
       <c r="K22">
-        <v>14.43542353698654</v>
+        <v>13.49191412403874</v>
       </c>
       <c r="L22">
-        <v>6.078857381256299</v>
+        <v>10.92449600258689</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.146898779797455</v>
       </c>
       <c r="N22">
-        <v>8.630021536294445</v>
+        <v>6.054782320145063</v>
       </c>
       <c r="O22">
-        <v>16.77749944534068</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.776587510596743</v>
       </c>
       <c r="Q22">
-        <v>16.44065857757608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.84901281640266</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.30793659946963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.18100397582494</v>
+        <v>27.18516507914633</v>
       </c>
       <c r="C23">
-        <v>16.10640073074965</v>
+        <v>16.52095161339749</v>
       </c>
       <c r="D23">
-        <v>9.39815315190909</v>
+        <v>9.294191742706682</v>
       </c>
       <c r="E23">
-        <v>8.606292615379632</v>
+        <v>8.47334115294321</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.91319268346454</v>
+        <v>27.29465808957989</v>
       </c>
       <c r="H23">
-        <v>1.90620037749916</v>
+        <v>1.876791312231042</v>
       </c>
       <c r="I23">
-        <v>2.600289978902352</v>
+        <v>2.556059128691103</v>
       </c>
       <c r="J23">
-        <v>9.631138838350358</v>
+        <v>8.773664088626481</v>
       </c>
       <c r="K23">
-        <v>14.51217529177934</v>
+        <v>13.64586768295649</v>
       </c>
       <c r="L23">
-        <v>6.047413167113042</v>
+        <v>11.04125913671936</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.225462883196126</v>
       </c>
       <c r="N23">
-        <v>8.543666478119896</v>
+        <v>6.026414268284649</v>
       </c>
       <c r="O23">
-        <v>16.51811701720981</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.695761387190725</v>
       </c>
       <c r="Q23">
-        <v>16.4066129451016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.59019529814642</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.41522868129022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.19583519958821</v>
+        <v>25.21391251755838</v>
       </c>
       <c r="C24">
-        <v>15.17482607343755</v>
+        <v>15.56341298652261</v>
       </c>
       <c r="D24">
-        <v>9.136348929702967</v>
+        <v>9.041614616385644</v>
       </c>
       <c r="E24">
-        <v>8.562883019071183</v>
+        <v>8.451798465369317</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.1715782119978</v>
+        <v>24.74113671498414</v>
       </c>
       <c r="H24">
-        <v>2.249062277047337</v>
+        <v>2.18440921497192</v>
       </c>
       <c r="I24">
-        <v>2.862157673628645</v>
+        <v>2.778113500100096</v>
       </c>
       <c r="J24">
-        <v>9.646675432260917</v>
+        <v>9.654210977945493</v>
       </c>
       <c r="K24">
-        <v>14.78454168662457</v>
+        <v>14.12673242461304</v>
       </c>
       <c r="L24">
-        <v>5.927066779438652</v>
+        <v>11.43632653146709</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.445791716883473</v>
       </c>
       <c r="N24">
-        <v>8.217648095628816</v>
+        <v>5.914078929819076</v>
       </c>
       <c r="O24">
-        <v>15.50388762859046</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.382109435585402</v>
       </c>
       <c r="Q24">
-        <v>16.2610327516961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.57165657649849</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.6438785295172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.8625143434064</v>
+        <v>22.89477799576424</v>
       </c>
       <c r="C25">
-        <v>14.10761411623767</v>
+        <v>14.33672057768068</v>
       </c>
       <c r="D25">
-        <v>8.85624345430921</v>
+        <v>8.780143806951001</v>
       </c>
       <c r="E25">
-        <v>8.515207755383772</v>
+        <v>8.424501725727735</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.43055611279643</v>
+        <v>24.03056158047981</v>
       </c>
       <c r="H25">
-        <v>2.633928605863287</v>
+        <v>2.542199020448019</v>
       </c>
       <c r="I25">
-        <v>3.159168604812294</v>
+        <v>3.042110300002503</v>
       </c>
       <c r="J25">
-        <v>9.681305505662666</v>
+        <v>9.743136242428294</v>
       </c>
       <c r="K25">
-        <v>15.10492526297891</v>
+        <v>14.50380842557301</v>
       </c>
       <c r="L25">
-        <v>5.792476243393433</v>
+        <v>11.7764782314895</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.61541214677905</v>
       </c>
       <c r="N25">
-        <v>7.854744595814924</v>
+        <v>5.778577437909503</v>
       </c>
       <c r="O25">
-        <v>14.33351082724684</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.01610828114439</v>
       </c>
       <c r="Q25">
-        <v>16.14207446391076</v>
+        <v>14.3845848240732</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.61993369843406</v>
       </c>
     </row>
   </sheetData>
